--- a/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.484014474265678</v>
+        <v>2.484014474266189</v>
       </c>
       <c r="C2">
-        <v>0.3853478958236281</v>
+        <v>0.3853478958239975</v>
       </c>
       <c r="D2">
-        <v>0.2750010098665427</v>
+        <v>0.2750010098661733</v>
       </c>
       <c r="E2">
-        <v>0.2023148629930986</v>
+        <v>0.2023148629930702</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.940748754428057</v>
+        <v>8.940748754428256</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.04630483300091726</v>
+        <v>0.0463048330009368</v>
       </c>
       <c r="J2">
-        <v>0.6170461138295877</v>
+        <v>0.6170461138295735</v>
       </c>
       <c r="K2">
-        <v>0.3159945023264825</v>
+        <v>0.315994502326518</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.120221951722783</v>
+        <v>2.120221951722897</v>
       </c>
       <c r="C3">
-        <v>0.324496618253022</v>
+        <v>0.3244966182538747</v>
       </c>
       <c r="D3">
-        <v>0.2373339853412801</v>
+        <v>0.2373339853412375</v>
       </c>
       <c r="E3">
-        <v>0.1746466941108693</v>
+        <v>0.1746466941108551</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.814028696866984</v>
+        <v>7.814028696867098</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.03997968408732788</v>
+        <v>0.03997968408735453</v>
       </c>
       <c r="J3">
-        <v>0.5245183432297509</v>
+        <v>0.524518343229758</v>
       </c>
       <c r="K3">
-        <v>0.2703228636328063</v>
+        <v>0.2703228636328419</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.905532321720756</v>
+        <v>1.905532321720955</v>
       </c>
       <c r="C4">
-        <v>0.2887719674828304</v>
+        <v>0.2887719674823472</v>
       </c>
       <c r="D4">
-        <v>0.2149502334594615</v>
+        <v>0.2149502334591773</v>
       </c>
       <c r="E4">
-        <v>0.1582050173676208</v>
+        <v>0.1582050173675214</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.141757655496605</v>
+        <v>7.14175765549669</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.03622100532875727</v>
+        <v>0.03622100532879102</v>
       </c>
       <c r="J4">
-        <v>0.4699761142417032</v>
+        <v>0.4699761142417529</v>
       </c>
       <c r="K4">
-        <v>0.243266981872047</v>
+        <v>0.2432669818720044</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.819894478692447</v>
+        <v>1.81989447869222</v>
       </c>
       <c r="C5">
-        <v>0.2745564585589193</v>
+        <v>0.2745564585580382</v>
       </c>
       <c r="D5">
-        <v>0.2059870041274081</v>
+        <v>0.2059870041272092</v>
       </c>
       <c r="E5">
-        <v>0.1516209588438286</v>
+        <v>0.151620958843786</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.871883393689814</v>
+        <v>6.871883393689785</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03471579523742285</v>
+        <v>0.03471579523740331</v>
       </c>
       <c r="J5">
-        <v>0.4482315426130583</v>
+        <v>0.4482315426130654</v>
       </c>
       <c r="K5">
-        <v>0.2324504875155995</v>
+        <v>0.2324504875155782</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.805777239065208</v>
+        <v>1.80577723906481</v>
       </c>
       <c r="C6">
-        <v>0.2722148336317645</v>
+        <v>0.2722148336317787</v>
       </c>
       <c r="D6">
-        <v>0.2045074607404729</v>
+        <v>0.2045074607407571</v>
       </c>
       <c r="E6">
-        <v>0.1505341179553383</v>
+        <v>0.1505341179553028</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.827295238158911</v>
+        <v>6.827295238158854</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03446732340827907</v>
+        <v>0.03446732340823822</v>
       </c>
       <c r="J6">
-        <v>0.4446476038206981</v>
+        <v>0.4446476038207408</v>
       </c>
       <c r="K6">
-        <v>0.2306659962803366</v>
+        <v>0.2306659962803295</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.904370296262158</v>
+        <v>1.904370296262073</v>
       </c>
       <c r="C7">
-        <v>0.288578949543961</v>
+        <v>0.2885789495443873</v>
       </c>
       <c r="D7">
-        <v>0.2148287463623859</v>
+        <v>0.2148287463625707</v>
       </c>
       <c r="E7">
-        <v>0.1581157787739187</v>
+        <v>0.1581157787740253</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.138102530311755</v>
+        <v>7.138102530311841</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.03620060437599548</v>
+        <v>0.03620060437603101</v>
       </c>
       <c r="J7">
-        <v>0.4696810171254384</v>
+        <v>0.4696810171254313</v>
       </c>
       <c r="K7">
-        <v>0.2431203084560138</v>
+        <v>0.2431203084559712</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.356561445387285</v>
+        <v>2.356561445387399</v>
       </c>
       <c r="C8">
-        <v>0.3639812289293616</v>
+        <v>0.3639812289285089</v>
       </c>
       <c r="D8">
-        <v>0.2618404321383565</v>
+        <v>0.2618404321386834</v>
       </c>
       <c r="E8">
-        <v>0.1926475689222968</v>
+        <v>0.1926475689222329</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.547662771386655</v>
+        <v>8.547662771386541</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.04409478128557254</v>
+        <v>0.04409478128553346</v>
       </c>
       <c r="J8">
-        <v>0.5846136066210761</v>
+        <v>0.5846136066210832</v>
       </c>
       <c r="K8">
-        <v>0.3000167982043109</v>
+        <v>0.3000167982042967</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.330224580463494</v>
+        <v>3.330224580463153</v>
       </c>
       <c r="C9">
-        <v>0.5286370609131268</v>
+        <v>0.5286370609126152</v>
       </c>
       <c r="D9">
-        <v>0.3614806123030831</v>
+        <v>0.3614806123025858</v>
       </c>
       <c r="E9">
-        <v>0.2658554042156993</v>
+        <v>0.2658554042157562</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.51158100185893</v>
+        <v>11.51158100185904</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.06083354393357965</v>
+        <v>0.06083354393354412</v>
       </c>
       <c r="J9">
-        <v>0.8328449590720481</v>
+        <v>0.8328449590720055</v>
       </c>
       <c r="K9">
-        <v>0.4215363870783619</v>
+        <v>0.4215363870783264</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.129998061164486</v>
+        <v>4.129998061163974</v>
       </c>
       <c r="C10">
-        <v>0.6665272020690622</v>
+        <v>0.6665272020685507</v>
       </c>
       <c r="D10">
-        <v>0.4419016545367356</v>
+        <v>0.4419016545363093</v>
       </c>
       <c r="E10">
         <v>0.3249828541421778</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.88817578720187</v>
+        <v>13.88817578720204</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0.07435979092149836</v>
       </c>
       <c r="J10">
-        <v>1.037597758615618</v>
+        <v>1.037597758615561</v>
       </c>
       <c r="K10">
-        <v>0.5205614029187871</v>
+        <v>0.5205614029187515</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.521699021730456</v>
+        <v>4.521699021730399</v>
       </c>
       <c r="C11">
-        <v>0.7349856441611564</v>
+        <v>0.734985644162208</v>
       </c>
       <c r="D11">
         <v>0.4808553301916447</v>
       </c>
       <c r="E11">
-        <v>0.3536398234074625</v>
+        <v>0.3536398234073843</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.03568469475306</v>
+        <v>15.03568469475323</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.08091848076325547</v>
+        <v>0.08091848076325903</v>
       </c>
       <c r="J11">
-        <v>1.138174727979674</v>
+        <v>1.138174727979731</v>
       </c>
       <c r="K11">
-        <v>0.5688399691742418</v>
+        <v>0.5688399691742561</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>4.675108588552121</v>
       </c>
       <c r="C12">
-        <v>0.7619675827637025</v>
+        <v>0.7619675827643562</v>
       </c>
       <c r="D12">
         <v>0.4960361987427859</v>
       </c>
       <c r="E12">
-        <v>0.3648113252629059</v>
+        <v>0.3648113252628917</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.48233954986421</v>
+        <v>15.48233954986392</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.08347588532037165</v>
+        <v>0.0834758853203823</v>
       </c>
       <c r="J12">
-        <v>1.17761999192048</v>
+        <v>1.177619991920409</v>
       </c>
       <c r="K12">
-        <v>0.5877116836922411</v>
+        <v>0.5877116836922767</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.641822762065885</v>
+        <v>4.641822762065715</v>
       </c>
       <c r="C13">
-        <v>0.7561050030303704</v>
+        <v>0.7561050030292051</v>
       </c>
       <c r="D13">
-        <v>0.4927459190251398</v>
+        <v>0.4927459190251966</v>
       </c>
       <c r="E13">
-        <v>0.3623898609172329</v>
+        <v>0.3623898609171405</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.38555687633027</v>
+        <v>15.38555687633016</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.08292152903912609</v>
+        <v>0.08292152903915451</v>
       </c>
       <c r="J13">
-        <v>1.169058793344291</v>
+        <v>1.169058793344334</v>
       </c>
       <c r="K13">
-        <v>0.5836187251540608</v>
+        <v>0.5836187251541247</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.534211069971434</v>
+        <v>4.534211069971491</v>
       </c>
       <c r="C14">
-        <v>0.7371826709175195</v>
+        <v>0.7371826709170364</v>
       </c>
       <c r="D14">
-        <v>0.4820950543105198</v>
+        <v>0.4820950543106903</v>
       </c>
       <c r="E14">
-        <v>0.3545520541539133</v>
+        <v>0.3545520541539062</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.07217114772112</v>
+        <v>15.07217114772072</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.08112729773053573</v>
+        <v>0.08112729773051086</v>
       </c>
       <c r="J14">
-        <v>1.141390722181399</v>
+        <v>1.14139072218137</v>
       </c>
       <c r="K14">
-        <v>0.5703798974619687</v>
+        <v>0.5703798974620256</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>4.468994397227277</v>
       </c>
       <c r="C15">
-        <v>0.7257381078201774</v>
+        <v>0.7257381078197795</v>
       </c>
       <c r="D15">
-        <v>0.47563014402931</v>
+        <v>0.4756301440292532</v>
       </c>
       <c r="E15">
-        <v>0.3497950983158589</v>
+        <v>0.3497950983158091</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.88187967687793</v>
+        <v>14.88187967687799</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.08003841703086323</v>
+        <v>0.08003841703090231</v>
       </c>
       <c r="J15">
-        <v>1.124630203558752</v>
+        <v>1.124630203558795</v>
       </c>
       <c r="K15">
-        <v>0.5623518261666618</v>
+        <v>0.5623518261666689</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.105045631847929</v>
+        <v>4.105045631847702</v>
       </c>
       <c r="C16">
         <v>0.6621871515643249</v>
       </c>
       <c r="D16">
-        <v>0.4394107257132305</v>
+        <v>0.4394107257129463</v>
       </c>
       <c r="E16">
-        <v>0.3231507696385449</v>
+        <v>0.3231507696384526</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.8147239825725</v>
+        <v>13.81472398257245</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.07394055519205978</v>
+        <v>0.07394055519197096</v>
       </c>
       <c r="J16">
         <v>1.031197421775659</v>
       </c>
       <c r="K16">
-        <v>0.5174812432201534</v>
+        <v>0.5174812432200682</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.889591704489533</v>
+        <v>3.889591704489305</v>
       </c>
       <c r="C17">
-        <v>0.6248156321828731</v>
+        <v>0.6248156321838962</v>
       </c>
       <c r="D17">
-        <v>0.4178547035819804</v>
+        <v>0.4178547035822646</v>
       </c>
       <c r="E17">
         <v>0.3072982216438476</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.1786898976894</v>
+        <v>13.17868989768937</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.07031335805143968</v>
+        <v>0.0703133580514077</v>
       </c>
       <c r="J17">
-        <v>0.9759661418653138</v>
+        <v>0.9759661418652286</v>
       </c>
       <c r="K17">
-        <v>0.4908611675533265</v>
+        <v>0.4908611675533479</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.768214188331513</v>
+        <v>3.768214188331342</v>
       </c>
       <c r="C18">
-        <v>0.6038428028850831</v>
+        <v>0.6038428028861347</v>
       </c>
       <c r="D18">
-        <v>0.4056728145094723</v>
+        <v>0.4056728145100408</v>
       </c>
       <c r="E18">
-        <v>0.2983410228959187</v>
+        <v>0.2983410228958405</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.81892127676394</v>
+        <v>12.81892127676372</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.06826413554817634</v>
+        <v>0.06826413554816213</v>
       </c>
       <c r="J18">
-        <v>0.9448770668201689</v>
+        <v>0.9448770668202116</v>
       </c>
       <c r="K18">
-        <v>0.475845053436494</v>
+        <v>0.4758450534364798</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.727526958318663</v>
+        <v>3.727526958318947</v>
       </c>
       <c r="C19">
-        <v>0.5968253549855547</v>
+        <v>0.5968253549855262</v>
       </c>
       <c r="D19">
-        <v>0.4015830783073966</v>
+        <v>0.4015830783073682</v>
       </c>
       <c r="E19">
-        <v>0.2953341226728767</v>
+        <v>0.2953341226727773</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.69808297363292</v>
+        <v>12.69808297363289</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.06757625928790745</v>
+        <v>0.06757625928787192</v>
       </c>
       <c r="J19">
         <v>0.934459768755957</v>
       </c>
       <c r="K19">
-        <v>0.4708082456504101</v>
+        <v>0.4708082456504172</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>3.912256797520286</v>
       </c>
       <c r="C20">
-        <v>0.6287383504590593</v>
+        <v>0.6287383504590878</v>
       </c>
       <c r="D20">
-        <v>0.4201263925676528</v>
+        <v>0.4201263925683634</v>
       </c>
       <c r="E20">
-        <v>0.3089686855139107</v>
+        <v>0.3089686855138538</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.24575296367192</v>
+        <v>13.245752963672</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0706955461693326</v>
+        <v>0.0706955461692651</v>
       </c>
       <c r="J20">
-        <v>0.9817735315333493</v>
+        <v>0.9817735315334062</v>
       </c>
       <c r="K20">
-        <v>0.4936635836182646</v>
+        <v>0.4936635836182077</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>4.565671288877127</v>
       </c>
       <c r="C21">
-        <v>0.7427096923090915</v>
+        <v>0.7427096923091199</v>
       </c>
       <c r="D21">
-        <v>0.4852109701045038</v>
+        <v>0.485210970104248</v>
       </c>
       <c r="E21">
-        <v>0.3568449076704141</v>
+        <v>0.3568449076705775</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.16386724783541</v>
+        <v>15.16386724783536</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.08165216041279066</v>
+        <v>0.08165216041280843</v>
       </c>
       <c r="J21">
         <v>1.149477901406911</v>
       </c>
       <c r="K21">
-        <v>0.5742512878427775</v>
+        <v>0.5742512878426851</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>5.023070321932209</v>
       </c>
       <c r="C22">
-        <v>0.823528199268651</v>
+        <v>0.8235281992680257</v>
       </c>
       <c r="D22">
-        <v>0.5303145089727366</v>
+        <v>0.5303145089730776</v>
       </c>
       <c r="E22">
-        <v>0.3900440199028381</v>
+        <v>0.3900440199028594</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.48985480409681</v>
+        <v>16.48985480409698</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.08925351522686498</v>
+        <v>0.08925351522685077</v>
       </c>
       <c r="J22">
-        <v>1.26720409140691</v>
+        <v>1.267204091406967</v>
       </c>
       <c r="K22">
-        <v>0.6304431149163179</v>
+        <v>0.6304431149161616</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.775731231988061</v>
+        <v>4.775731231987947</v>
       </c>
       <c r="C23">
-        <v>0.7797178769050959</v>
+        <v>0.7797178769045274</v>
       </c>
       <c r="D23">
-        <v>0.5059706997604962</v>
+        <v>0.5059706997606099</v>
       </c>
       <c r="E23">
-        <v>0.3721231472383408</v>
+        <v>0.3721231472382414</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.77447948941227</v>
+        <v>15.77447948941204</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0851499126750177</v>
+        <v>0.08514991267493599</v>
       </c>
       <c r="J23">
-        <v>1.20350924282414</v>
+        <v>1.203509242824097</v>
       </c>
       <c r="K23">
-        <v>0.600078966136806</v>
+        <v>0.6000789661367989</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.902002230367941</v>
+        <v>3.902002230367827</v>
       </c>
       <c r="C24">
-        <v>0.6269633097239762</v>
+        <v>0.6269633097240899</v>
       </c>
       <c r="D24">
-        <v>0.4190987112881999</v>
+        <v>0.4190987112885978</v>
       </c>
       <c r="E24">
-        <v>0.3082129856693072</v>
+        <v>0.3082129856692291</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.21541557156149</v>
+        <v>13.21541557156155</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0705226475798213</v>
+        <v>0.07052264757989235</v>
       </c>
       <c r="J24">
-        <v>0.9791459627869159</v>
+        <v>0.9791459627869443</v>
       </c>
       <c r="K24">
-        <v>0.4923957228175624</v>
+        <v>0.4923957228174629</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.054672294486522</v>
+        <v>3.054672294486863</v>
       </c>
       <c r="C25">
-        <v>0.4816946717642736</v>
+        <v>0.4816946717637336</v>
       </c>
       <c r="D25">
-        <v>0.3334844892389555</v>
+        <v>0.3334844892384581</v>
       </c>
       <c r="E25">
-        <v>0.2452815746159374</v>
+        <v>0.2452815746158379</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.6813479257776</v>
+        <v>10.68134792577771</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.05612863898382159</v>
+        <v>0.05612863898390685</v>
       </c>
       <c r="J25">
-        <v>0.7624821632067338</v>
+        <v>0.762482163206748</v>
       </c>
       <c r="K25">
-        <v>0.3872637734307887</v>
+        <v>0.3872637734306821</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.484014474266189</v>
+        <v>2.484014474265678</v>
       </c>
       <c r="C2">
-        <v>0.3853478958239975</v>
+        <v>0.3853478958236281</v>
       </c>
       <c r="D2">
-        <v>0.2750010098661733</v>
+        <v>0.2750010098665427</v>
       </c>
       <c r="E2">
-        <v>0.2023148629930702</v>
+        <v>0.2023148629930986</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.940748754428256</v>
+        <v>8.940748754428057</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0463048330009368</v>
+        <v>0.04630483300091726</v>
       </c>
       <c r="J2">
-        <v>0.6170461138295735</v>
+        <v>0.6170461138295877</v>
       </c>
       <c r="K2">
-        <v>0.315994502326518</v>
+        <v>0.3159945023264825</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.120221951722897</v>
+        <v>2.120221951722783</v>
       </c>
       <c r="C3">
-        <v>0.3244966182538747</v>
+        <v>0.324496618253022</v>
       </c>
       <c r="D3">
-        <v>0.2373339853412375</v>
+        <v>0.2373339853412801</v>
       </c>
       <c r="E3">
-        <v>0.1746466941108551</v>
+        <v>0.1746466941108693</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.814028696867098</v>
+        <v>7.814028696866984</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.03997968408735453</v>
+        <v>0.03997968408732788</v>
       </c>
       <c r="J3">
-        <v>0.524518343229758</v>
+        <v>0.5245183432297509</v>
       </c>
       <c r="K3">
-        <v>0.2703228636328419</v>
+        <v>0.2703228636328063</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.905532321720955</v>
+        <v>1.905532321720756</v>
       </c>
       <c r="C4">
-        <v>0.2887719674823472</v>
+        <v>0.2887719674828304</v>
       </c>
       <c r="D4">
-        <v>0.2149502334591773</v>
+        <v>0.2149502334594615</v>
       </c>
       <c r="E4">
-        <v>0.1582050173675214</v>
+        <v>0.1582050173676208</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.14175765549669</v>
+        <v>7.141757655496605</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.03622100532879102</v>
+        <v>0.03622100532875727</v>
       </c>
       <c r="J4">
-        <v>0.4699761142417529</v>
+        <v>0.4699761142417032</v>
       </c>
       <c r="K4">
-        <v>0.2432669818720044</v>
+        <v>0.243266981872047</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.81989447869222</v>
+        <v>1.819894478692447</v>
       </c>
       <c r="C5">
-        <v>0.2745564585580382</v>
+        <v>0.2745564585589193</v>
       </c>
       <c r="D5">
-        <v>0.2059870041272092</v>
+        <v>0.2059870041274081</v>
       </c>
       <c r="E5">
-        <v>0.151620958843786</v>
+        <v>0.1516209588438286</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.871883393689785</v>
+        <v>6.871883393689814</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03471579523740331</v>
+        <v>0.03471579523742285</v>
       </c>
       <c r="J5">
-        <v>0.4482315426130654</v>
+        <v>0.4482315426130583</v>
       </c>
       <c r="K5">
-        <v>0.2324504875155782</v>
+        <v>0.2324504875155995</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.80577723906481</v>
+        <v>1.805777239065208</v>
       </c>
       <c r="C6">
-        <v>0.2722148336317787</v>
+        <v>0.2722148336317645</v>
       </c>
       <c r="D6">
-        <v>0.2045074607407571</v>
+        <v>0.2045074607404729</v>
       </c>
       <c r="E6">
-        <v>0.1505341179553028</v>
+        <v>0.1505341179553383</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.827295238158854</v>
+        <v>6.827295238158911</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03446732340823822</v>
+        <v>0.03446732340827907</v>
       </c>
       <c r="J6">
-        <v>0.4446476038207408</v>
+        <v>0.4446476038206981</v>
       </c>
       <c r="K6">
-        <v>0.2306659962803295</v>
+        <v>0.2306659962803366</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.904370296262073</v>
+        <v>1.904370296262158</v>
       </c>
       <c r="C7">
-        <v>0.2885789495443873</v>
+        <v>0.288578949543961</v>
       </c>
       <c r="D7">
-        <v>0.2148287463625707</v>
+        <v>0.2148287463623859</v>
       </c>
       <c r="E7">
-        <v>0.1581157787740253</v>
+        <v>0.1581157787739187</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.138102530311841</v>
+        <v>7.138102530311755</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.03620060437603101</v>
+        <v>0.03620060437599548</v>
       </c>
       <c r="J7">
-        <v>0.4696810171254313</v>
+        <v>0.4696810171254384</v>
       </c>
       <c r="K7">
-        <v>0.2431203084559712</v>
+        <v>0.2431203084560138</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.356561445387399</v>
+        <v>2.356561445387285</v>
       </c>
       <c r="C8">
-        <v>0.3639812289285089</v>
+        <v>0.3639812289293616</v>
       </c>
       <c r="D8">
-        <v>0.2618404321386834</v>
+        <v>0.2618404321383565</v>
       </c>
       <c r="E8">
-        <v>0.1926475689222329</v>
+        <v>0.1926475689222968</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.547662771386541</v>
+        <v>8.547662771386655</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.04409478128553346</v>
+        <v>0.04409478128557254</v>
       </c>
       <c r="J8">
-        <v>0.5846136066210832</v>
+        <v>0.5846136066210761</v>
       </c>
       <c r="K8">
-        <v>0.3000167982042967</v>
+        <v>0.3000167982043109</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.330224580463153</v>
+        <v>3.330224580463494</v>
       </c>
       <c r="C9">
-        <v>0.5286370609126152</v>
+        <v>0.5286370609131268</v>
       </c>
       <c r="D9">
-        <v>0.3614806123025858</v>
+        <v>0.3614806123030831</v>
       </c>
       <c r="E9">
-        <v>0.2658554042157562</v>
+        <v>0.2658554042156993</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.51158100185904</v>
+        <v>11.51158100185893</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.06083354393354412</v>
+        <v>0.06083354393357965</v>
       </c>
       <c r="J9">
-        <v>0.8328449590720055</v>
+        <v>0.8328449590720481</v>
       </c>
       <c r="K9">
-        <v>0.4215363870783264</v>
+        <v>0.4215363870783619</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.129998061163974</v>
+        <v>4.129998061164486</v>
       </c>
       <c r="C10">
-        <v>0.6665272020685507</v>
+        <v>0.6665272020690622</v>
       </c>
       <c r="D10">
-        <v>0.4419016545363093</v>
+        <v>0.4419016545367356</v>
       </c>
       <c r="E10">
         <v>0.3249828541421778</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.88817578720204</v>
+        <v>13.88817578720187</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0.07435979092149836</v>
       </c>
       <c r="J10">
-        <v>1.037597758615561</v>
+        <v>1.037597758615618</v>
       </c>
       <c r="K10">
-        <v>0.5205614029187515</v>
+        <v>0.5205614029187871</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.521699021730399</v>
+        <v>4.521699021730456</v>
       </c>
       <c r="C11">
-        <v>0.734985644162208</v>
+        <v>0.7349856441611564</v>
       </c>
       <c r="D11">
         <v>0.4808553301916447</v>
       </c>
       <c r="E11">
-        <v>0.3536398234073843</v>
+        <v>0.3536398234074625</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.03568469475323</v>
+        <v>15.03568469475306</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.08091848076325903</v>
+        <v>0.08091848076325547</v>
       </c>
       <c r="J11">
-        <v>1.138174727979731</v>
+        <v>1.138174727979674</v>
       </c>
       <c r="K11">
-        <v>0.5688399691742561</v>
+        <v>0.5688399691742418</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>4.675108588552121</v>
       </c>
       <c r="C12">
-        <v>0.7619675827643562</v>
+        <v>0.7619675827637025</v>
       </c>
       <c r="D12">
         <v>0.4960361987427859</v>
       </c>
       <c r="E12">
-        <v>0.3648113252628917</v>
+        <v>0.3648113252629059</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.48233954986392</v>
+        <v>15.48233954986421</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0834758853203823</v>
+        <v>0.08347588532037165</v>
       </c>
       <c r="J12">
-        <v>1.177619991920409</v>
+        <v>1.17761999192048</v>
       </c>
       <c r="K12">
-        <v>0.5877116836922767</v>
+        <v>0.5877116836922411</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.641822762065715</v>
+        <v>4.641822762065885</v>
       </c>
       <c r="C13">
-        <v>0.7561050030292051</v>
+        <v>0.7561050030303704</v>
       </c>
       <c r="D13">
-        <v>0.4927459190251966</v>
+        <v>0.4927459190251398</v>
       </c>
       <c r="E13">
-        <v>0.3623898609171405</v>
+        <v>0.3623898609172329</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.38555687633016</v>
+        <v>15.38555687633027</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.08292152903915451</v>
+        <v>0.08292152903912609</v>
       </c>
       <c r="J13">
-        <v>1.169058793344334</v>
+        <v>1.169058793344291</v>
       </c>
       <c r="K13">
-        <v>0.5836187251541247</v>
+        <v>0.5836187251540608</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.534211069971491</v>
+        <v>4.534211069971434</v>
       </c>
       <c r="C14">
-        <v>0.7371826709170364</v>
+        <v>0.7371826709175195</v>
       </c>
       <c r="D14">
-        <v>0.4820950543106903</v>
+        <v>0.4820950543105198</v>
       </c>
       <c r="E14">
-        <v>0.3545520541539062</v>
+        <v>0.3545520541539133</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.07217114772072</v>
+        <v>15.07217114772112</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.08112729773051086</v>
+        <v>0.08112729773053573</v>
       </c>
       <c r="J14">
-        <v>1.14139072218137</v>
+        <v>1.141390722181399</v>
       </c>
       <c r="K14">
-        <v>0.5703798974620256</v>
+        <v>0.5703798974619687</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>4.468994397227277</v>
       </c>
       <c r="C15">
-        <v>0.7257381078197795</v>
+        <v>0.7257381078201774</v>
       </c>
       <c r="D15">
-        <v>0.4756301440292532</v>
+        <v>0.47563014402931</v>
       </c>
       <c r="E15">
-        <v>0.3497950983158091</v>
+        <v>0.3497950983158589</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.88187967687799</v>
+        <v>14.88187967687793</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.08003841703090231</v>
+        <v>0.08003841703086323</v>
       </c>
       <c r="J15">
-        <v>1.124630203558795</v>
+        <v>1.124630203558752</v>
       </c>
       <c r="K15">
-        <v>0.5623518261666689</v>
+        <v>0.5623518261666618</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.105045631847702</v>
+        <v>4.105045631847929</v>
       </c>
       <c r="C16">
         <v>0.6621871515643249</v>
       </c>
       <c r="D16">
-        <v>0.4394107257129463</v>
+        <v>0.4394107257132305</v>
       </c>
       <c r="E16">
-        <v>0.3231507696384526</v>
+        <v>0.3231507696385449</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.81472398257245</v>
+        <v>13.8147239825725</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.07394055519197096</v>
+        <v>0.07394055519205978</v>
       </c>
       <c r="J16">
         <v>1.031197421775659</v>
       </c>
       <c r="K16">
-        <v>0.5174812432200682</v>
+        <v>0.5174812432201534</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.889591704489305</v>
+        <v>3.889591704489533</v>
       </c>
       <c r="C17">
-        <v>0.6248156321838962</v>
+        <v>0.6248156321828731</v>
       </c>
       <c r="D17">
-        <v>0.4178547035822646</v>
+        <v>0.4178547035819804</v>
       </c>
       <c r="E17">
         <v>0.3072982216438476</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.17868989768937</v>
+        <v>13.1786898976894</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0703133580514077</v>
+        <v>0.07031335805143968</v>
       </c>
       <c r="J17">
-        <v>0.9759661418652286</v>
+        <v>0.9759661418653138</v>
       </c>
       <c r="K17">
-        <v>0.4908611675533479</v>
+        <v>0.4908611675533265</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.768214188331342</v>
+        <v>3.768214188331513</v>
       </c>
       <c r="C18">
-        <v>0.6038428028861347</v>
+        <v>0.6038428028850831</v>
       </c>
       <c r="D18">
-        <v>0.4056728145100408</v>
+        <v>0.4056728145094723</v>
       </c>
       <c r="E18">
-        <v>0.2983410228958405</v>
+        <v>0.2983410228959187</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.81892127676372</v>
+        <v>12.81892127676394</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.06826413554816213</v>
+        <v>0.06826413554817634</v>
       </c>
       <c r="J18">
-        <v>0.9448770668202116</v>
+        <v>0.9448770668201689</v>
       </c>
       <c r="K18">
-        <v>0.4758450534364798</v>
+        <v>0.475845053436494</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.727526958318947</v>
+        <v>3.727526958318663</v>
       </c>
       <c r="C19">
-        <v>0.5968253549855262</v>
+        <v>0.5968253549855547</v>
       </c>
       <c r="D19">
-        <v>0.4015830783073682</v>
+        <v>0.4015830783073966</v>
       </c>
       <c r="E19">
-        <v>0.2953341226727773</v>
+        <v>0.2953341226728767</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.69808297363289</v>
+        <v>12.69808297363292</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.06757625928787192</v>
+        <v>0.06757625928790745</v>
       </c>
       <c r="J19">
         <v>0.934459768755957</v>
       </c>
       <c r="K19">
-        <v>0.4708082456504172</v>
+        <v>0.4708082456504101</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>3.912256797520286</v>
       </c>
       <c r="C20">
-        <v>0.6287383504590878</v>
+        <v>0.6287383504590593</v>
       </c>
       <c r="D20">
-        <v>0.4201263925683634</v>
+        <v>0.4201263925676528</v>
       </c>
       <c r="E20">
-        <v>0.3089686855138538</v>
+        <v>0.3089686855139107</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.245752963672</v>
+        <v>13.24575296367192</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0706955461692651</v>
+        <v>0.0706955461693326</v>
       </c>
       <c r="J20">
-        <v>0.9817735315334062</v>
+        <v>0.9817735315333493</v>
       </c>
       <c r="K20">
-        <v>0.4936635836182077</v>
+        <v>0.4936635836182646</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>4.565671288877127</v>
       </c>
       <c r="C21">
-        <v>0.7427096923091199</v>
+        <v>0.7427096923090915</v>
       </c>
       <c r="D21">
-        <v>0.485210970104248</v>
+        <v>0.4852109701045038</v>
       </c>
       <c r="E21">
-        <v>0.3568449076705775</v>
+        <v>0.3568449076704141</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.16386724783536</v>
+        <v>15.16386724783541</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.08165216041280843</v>
+        <v>0.08165216041279066</v>
       </c>
       <c r="J21">
         <v>1.149477901406911</v>
       </c>
       <c r="K21">
-        <v>0.5742512878426851</v>
+        <v>0.5742512878427775</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>5.023070321932209</v>
       </c>
       <c r="C22">
-        <v>0.8235281992680257</v>
+        <v>0.823528199268651</v>
       </c>
       <c r="D22">
-        <v>0.5303145089730776</v>
+        <v>0.5303145089727366</v>
       </c>
       <c r="E22">
-        <v>0.3900440199028594</v>
+        <v>0.3900440199028381</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.48985480409698</v>
+        <v>16.48985480409681</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.08925351522685077</v>
+        <v>0.08925351522686498</v>
       </c>
       <c r="J22">
-        <v>1.267204091406967</v>
+        <v>1.26720409140691</v>
       </c>
       <c r="K22">
-        <v>0.6304431149161616</v>
+        <v>0.6304431149163179</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.775731231987947</v>
+        <v>4.775731231988061</v>
       </c>
       <c r="C23">
-        <v>0.7797178769045274</v>
+        <v>0.7797178769050959</v>
       </c>
       <c r="D23">
-        <v>0.5059706997606099</v>
+        <v>0.5059706997604962</v>
       </c>
       <c r="E23">
-        <v>0.3721231472382414</v>
+        <v>0.3721231472383408</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.77447948941204</v>
+        <v>15.77447948941227</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.08514991267493599</v>
+        <v>0.0851499126750177</v>
       </c>
       <c r="J23">
-        <v>1.203509242824097</v>
+        <v>1.20350924282414</v>
       </c>
       <c r="K23">
-        <v>0.6000789661367989</v>
+        <v>0.600078966136806</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.902002230367827</v>
+        <v>3.902002230367941</v>
       </c>
       <c r="C24">
-        <v>0.6269633097240899</v>
+        <v>0.6269633097239762</v>
       </c>
       <c r="D24">
-        <v>0.4190987112885978</v>
+        <v>0.4190987112881999</v>
       </c>
       <c r="E24">
-        <v>0.3082129856692291</v>
+        <v>0.3082129856693072</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.21541557156155</v>
+        <v>13.21541557156149</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.07052264757989235</v>
+        <v>0.0705226475798213</v>
       </c>
       <c r="J24">
-        <v>0.9791459627869443</v>
+        <v>0.9791459627869159</v>
       </c>
       <c r="K24">
-        <v>0.4923957228174629</v>
+        <v>0.4923957228175624</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.054672294486863</v>
+        <v>3.054672294486522</v>
       </c>
       <c r="C25">
-        <v>0.4816946717637336</v>
+        <v>0.4816946717642736</v>
       </c>
       <c r="D25">
-        <v>0.3334844892384581</v>
+        <v>0.3334844892389555</v>
       </c>
       <c r="E25">
-        <v>0.2452815746158379</v>
+        <v>0.2452815746159374</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.68134792577771</v>
+        <v>10.6813479257776</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.05612863898390685</v>
+        <v>0.05612863898382159</v>
       </c>
       <c r="J25">
-        <v>0.762482163206748</v>
+        <v>0.7624821632067338</v>
       </c>
       <c r="K25">
-        <v>0.3872637734306821</v>
+        <v>0.3872637734307887</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.484014474265678</v>
+        <v>2.483455753867247</v>
       </c>
       <c r="C2">
-        <v>0.3853478958236281</v>
+        <v>0.3850911819003784</v>
       </c>
       <c r="D2">
-        <v>0.2750010098665427</v>
+        <v>0.2749662732632174</v>
       </c>
       <c r="E2">
-        <v>0.2023148629930986</v>
+        <v>0.20228784484312</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.940748754428057</v>
+        <v>2.91640969960892</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.974357068810917</v>
       </c>
       <c r="I2">
-        <v>0.04630483300091726</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6170461138295877</v>
+        <v>0.04629822276386086</v>
       </c>
       <c r="K2">
-        <v>0.3159945023264825</v>
+        <v>0.616860845623215</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3159463800973725</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.120221951722783</v>
+        <v>2.119895923445256</v>
       </c>
       <c r="C3">
-        <v>0.324496618253022</v>
+        <v>0.3243249546350455</v>
       </c>
       <c r="D3">
-        <v>0.2373339853412801</v>
+        <v>0.237311504852812</v>
       </c>
       <c r="E3">
-        <v>0.1746466941108693</v>
+        <v>0.1746283550095242</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.814028696866984</v>
+        <v>2.540166933535659</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.231418199922217</v>
       </c>
       <c r="I3">
-        <v>0.03997968408732788</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5245183432297509</v>
+        <v>0.03997504272875219</v>
       </c>
       <c r="K3">
-        <v>0.2703228636328063</v>
+        <v>0.5244050820089399</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2702935791014767</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.905532321720756</v>
+        <v>1.905316751451778</v>
       </c>
       <c r="C4">
-        <v>0.2887719674828304</v>
+        <v>0.2886439735694069</v>
       </c>
       <c r="D4">
-        <v>0.2149502334594615</v>
+        <v>0.2149337953397179</v>
       </c>
       <c r="E4">
-        <v>0.1582050173676208</v>
+        <v>0.1581910906462625</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.141757655496605</v>
+        <v>2.315617514766473</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.788171029299662</v>
       </c>
       <c r="I4">
-        <v>0.03622100532875727</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4699761142417032</v>
+        <v>0.03621739259692625</v>
       </c>
       <c r="K4">
-        <v>0.243266981872047</v>
+        <v>0.469897821319087</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2432467218819809</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.819894478692447</v>
+        <v>1.81971721152857</v>
       </c>
       <c r="C5">
-        <v>0.2745564585589193</v>
+        <v>0.2744444979851863</v>
       </c>
       <c r="D5">
-        <v>0.2059870041274081</v>
+        <v>0.2059727352759069</v>
       </c>
       <c r="E5">
-        <v>0.1516209588438286</v>
+        <v>0.1516086530098448</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.871883393689814</v>
+        <v>2.225461035106406</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.610245588165384</v>
       </c>
       <c r="I5">
-        <v>0.03471579523742285</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4482315426130583</v>
+        <v>0.03471256760708918</v>
       </c>
       <c r="K5">
-        <v>0.2324504875155995</v>
+        <v>0.4481655867867289</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2324333916437524</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.805777239065208</v>
+        <v>1.805605963776458</v>
       </c>
       <c r="C6">
-        <v>0.2722148336317645</v>
+        <v>0.2721054389022584</v>
       </c>
       <c r="D6">
-        <v>0.2045074607404729</v>
+        <v>0.2044935364114906</v>
       </c>
       <c r="E6">
-        <v>0.1505341179553383</v>
+        <v>0.1505220719047884</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.827295238158911</v>
+        <v>2.210564709435147</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.580849703897087</v>
       </c>
       <c r="I6">
-        <v>0.03446732340827907</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4446476038206981</v>
+        <v>0.03446415794729596</v>
       </c>
       <c r="K6">
-        <v>0.2306659962803366</v>
+        <v>0.4445835915844967</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2306493979818853</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.904370296262158</v>
+        <v>1.904155268026784</v>
       </c>
       <c r="C7">
-        <v>0.288578949543961</v>
+        <v>0.288451178539475</v>
       </c>
       <c r="D7">
-        <v>0.2148287463623859</v>
+        <v>0.214812338591841</v>
       </c>
       <c r="E7">
-        <v>0.1581157787739187</v>
+        <v>0.158101874567997</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.138102530311755</v>
+        <v>2.314396509046929</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.78576119829691</v>
       </c>
       <c r="I7">
-        <v>0.03620060437599548</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4696810171254384</v>
+        <v>0.03619699696273493</v>
       </c>
       <c r="K7">
-        <v>0.2431203084560138</v>
+        <v>0.4696028978434015</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2431000930701543</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.356561445387285</v>
+        <v>2.356090649354769</v>
       </c>
       <c r="C8">
-        <v>0.3639812289293616</v>
+        <v>0.3637558739515043</v>
       </c>
       <c r="D8">
-        <v>0.2618404321383565</v>
+        <v>0.2618102831737872</v>
       </c>
       <c r="E8">
-        <v>0.1926475689222968</v>
+        <v>0.1926237696934905</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.547662771386655</v>
+        <v>2.785160715284036</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.715156386687084</v>
       </c>
       <c r="I8">
-        <v>0.04409478128557254</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5846136066210761</v>
+        <v>0.04408889499581647</v>
       </c>
       <c r="K8">
-        <v>0.3000167982043109</v>
+        <v>0.5844553602433322</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2999757835020631</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.330224580463494</v>
+        <v>3.328909968522282</v>
       </c>
       <c r="C9">
-        <v>0.5286370609131268</v>
+        <v>0.528129770088583</v>
       </c>
       <c r="D9">
-        <v>0.3614806123030831</v>
+        <v>0.3614069120267942</v>
       </c>
       <c r="E9">
-        <v>0.2658554042156993</v>
+        <v>0.2658016647986514</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.51158100185893</v>
+        <v>3.774491734891768</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.669652438948958</v>
       </c>
       <c r="I9">
-        <v>0.06083354393357965</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8328449590720481</v>
+        <v>0.06082106277813182</v>
       </c>
       <c r="K9">
-        <v>0.4215363870783619</v>
+        <v>0.8324319923499317</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.4214268472999336</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.129998061164486</v>
+        <v>4.12768950384492</v>
       </c>
       <c r="C10">
-        <v>0.6665272020690622</v>
+        <v>0.6657137526811994</v>
       </c>
       <c r="D10">
-        <v>0.4419016545367356</v>
+        <v>0.4417761375069631</v>
       </c>
       <c r="E10">
-        <v>0.3249828541421778</v>
+        <v>0.3248940755578715</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.88817578720187</v>
+        <v>4.567333652523132</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.236846173730953</v>
       </c>
       <c r="I10">
-        <v>0.07435979092149836</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.037597758615618</v>
+        <v>0.07433974332700899</v>
       </c>
       <c r="K10">
-        <v>0.5205614029187871</v>
+        <v>1.03689113482946</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.5203695384337479</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.521699021730456</v>
+        <v>4.51879904339188</v>
       </c>
       <c r="C11">
-        <v>0.7349856441611564</v>
+        <v>0.7339961894183773</v>
       </c>
       <c r="D11">
-        <v>0.4808553301916447</v>
+        <v>0.4806984134964978</v>
       </c>
       <c r="E11">
-        <v>0.3536398234074625</v>
+        <v>0.3535298348130382</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.03568469475306</v>
+        <v>4.950018502224111</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.993491584091601</v>
       </c>
       <c r="I11">
-        <v>0.08091848076325547</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.138174727979674</v>
+        <v>0.08089386933590603</v>
       </c>
       <c r="K11">
-        <v>0.5688399691742418</v>
+        <v>1.137294923015077</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.56859826993702</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.675108588552121</v>
+        <v>4.67195720991225</v>
       </c>
       <c r="C12">
-        <v>0.7619675827637025</v>
+        <v>0.7609042662369347</v>
       </c>
       <c r="D12">
-        <v>0.4960361987427859</v>
+        <v>0.4958658043090622</v>
       </c>
       <c r="E12">
-        <v>0.3648113252629059</v>
+        <v>0.3646922242899819</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.48233954986421</v>
+        <v>5.098951918247451</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.28799260418003</v>
       </c>
       <c r="I12">
-        <v>0.08347588532037165</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.17761999192048</v>
+        <v>0.08344931350716678</v>
       </c>
       <c r="K12">
-        <v>0.5877116836922411</v>
+        <v>1.176666814628547</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.5874486224361917</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.641822762065885</v>
+        <v>4.638726898384562</v>
       </c>
       <c r="C13">
-        <v>0.7561050030303704</v>
+        <v>0.7550579538692546</v>
       </c>
       <c r="D13">
-        <v>0.4927459190251398</v>
+        <v>0.4925785073799318</v>
       </c>
       <c r="E13">
-        <v>0.3623898609172329</v>
+        <v>0.3622727772048151</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.38555687633027</v>
+        <v>5.066681589020504</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.2241799199918</v>
       </c>
       <c r="I13">
-        <v>0.08292152903912609</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.169058793344291</v>
+        <v>0.08289539122944234</v>
       </c>
       <c r="K13">
-        <v>0.5836187251540608</v>
+        <v>1.16812180733271</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.5833603899674742</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.534211069971434</v>
+        <v>4.531291011969529</v>
       </c>
       <c r="C14">
-        <v>0.7371826709175195</v>
+        <v>0.7361872978715951</v>
       </c>
       <c r="D14">
-        <v>0.4820950543105198</v>
+        <v>0.4819370639592648</v>
       </c>
       <c r="E14">
-        <v>0.3545520541539133</v>
+        <v>0.3544413398898598</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.07217114772112</v>
+        <v>4.962185081809992</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.01754919564223</v>
       </c>
       <c r="I14">
-        <v>0.08112729773053573</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.141390722181399</v>
+        <v>0.08110253019264491</v>
       </c>
       <c r="K14">
-        <v>0.5703798974619687</v>
+        <v>1.140505052048283</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5701364958198312</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.468994397227277</v>
+        <v>4.466178181013959</v>
       </c>
       <c r="C15">
-        <v>0.7257381078201774</v>
+        <v>0.7247733784278978</v>
       </c>
       <c r="D15">
-        <v>0.47563014402931</v>
+        <v>0.4754777007468647</v>
       </c>
       <c r="E15">
-        <v>0.3497950983158589</v>
+        <v>0.3496881328455146</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.88187967687793</v>
+        <v>4.898730577127935</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.892078480602663</v>
       </c>
       <c r="I15">
-        <v>0.08003841703086323</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.124630203558752</v>
+        <v>0.08001445595717982</v>
       </c>
       <c r="K15">
-        <v>0.5623518261666618</v>
+        <v>1.123774874591319</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.5621172212634775</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.105045631847929</v>
+        <v>4.102772352231398</v>
       </c>
       <c r="C16">
-        <v>0.6621871515643249</v>
+        <v>0.6613843165851847</v>
       </c>
       <c r="D16">
-        <v>0.4394107257132305</v>
+        <v>0.4392870678962026</v>
       </c>
       <c r="E16">
-        <v>0.3231507696385449</v>
+        <v>0.3230632465044039</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.8147239825725</v>
+        <v>4.542835258180077</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.188411879022908</v>
       </c>
       <c r="I16">
-        <v>0.07394055519205978</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.031197421775659</v>
+        <v>0.07392077788761497</v>
       </c>
       <c r="K16">
-        <v>0.5174812432201534</v>
+        <v>1.030501157465778</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.5172923320095748</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.889591704489533</v>
+        <v>3.887611386817696</v>
       </c>
       <c r="C17">
-        <v>0.6248156321828731</v>
+        <v>0.6241015464133568</v>
       </c>
       <c r="D17">
-        <v>0.4178547035819804</v>
+        <v>0.4177464260218358</v>
       </c>
       <c r="E17">
-        <v>0.3072982216438476</v>
+        <v>0.3072210852875514</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.1786898976894</v>
+        <v>4.330684408722846</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.769003029264724</v>
       </c>
       <c r="I17">
-        <v>0.07031335805143968</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9759661418653138</v>
+        <v>0.07029581833580067</v>
       </c>
       <c r="K17">
-        <v>0.4908611675533265</v>
+        <v>0.9753560592136523</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4906966943909339</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.768214188331513</v>
+        <v>3.766389838936448</v>
       </c>
       <c r="C18">
-        <v>0.6038428028850831</v>
+        <v>0.6031764546229397</v>
       </c>
       <c r="D18">
-        <v>0.4056728145094723</v>
+        <v>0.405572682513025</v>
       </c>
       <c r="E18">
-        <v>0.2983410228959187</v>
+        <v>0.2982693899520541</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.81892127676394</v>
+        <v>4.210671213014592</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.531762655805579</v>
       </c>
       <c r="I18">
-        <v>0.06826413554817634</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9448770668201689</v>
+        <v>0.06824778281465882</v>
       </c>
       <c r="K18">
-        <v>0.475845053436494</v>
+        <v>0.9443129887634996</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4756935260001853</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.727526958318663</v>
+        <v>3.725753446457986</v>
       </c>
       <c r="C19">
-        <v>0.5968253549855547</v>
+        <v>0.5961746492096722</v>
       </c>
       <c r="D19">
-        <v>0.4015830783073966</v>
+        <v>0.4014855951118932</v>
       </c>
       <c r="E19">
-        <v>0.2953341226728767</v>
+        <v>0.2952642800251937</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.69808297363292</v>
+        <v>4.17035957208148</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.452078275022842</v>
       </c>
       <c r="I19">
-        <v>0.06757625928790745</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.934459768755957</v>
+        <v>0.06756029297133281</v>
       </c>
       <c r="K19">
-        <v>0.4708082456504101</v>
+        <v>0.9339107064731138</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4706609279689644</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.912256797520286</v>
+        <v>3.910246635813678</v>
       </c>
       <c r="C20">
-        <v>0.6287383504590593</v>
+        <v>0.6280151713383191</v>
       </c>
       <c r="D20">
-        <v>0.4201263925676528</v>
+        <v>0.4200165530414779</v>
       </c>
       <c r="E20">
-        <v>0.3089686855139107</v>
+        <v>0.3088904941149124</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.24575296367192</v>
+        <v>4.353054683989086</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.813225757829599</v>
       </c>
       <c r="I20">
-        <v>0.0706955461693326</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9817735315333493</v>
+        <v>0.07067777903063899</v>
       </c>
       <c r="K20">
-        <v>0.4936635836182646</v>
+        <v>0.9811546563517766</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.4934966281603579</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.565671288877127</v>
+        <v>4.562700411317849</v>
       </c>
       <c r="C21">
-        <v>0.7427096923090915</v>
+        <v>0.7416993556896045</v>
       </c>
       <c r="D21">
-        <v>0.4852109701045038</v>
+        <v>0.4850502602367612</v>
       </c>
       <c r="E21">
-        <v>0.3568449076704141</v>
+        <v>0.3567323551490418</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.16386724783541</v>
+        <v>4.992761209576997</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.07800943517867</v>
       </c>
       <c r="I21">
-        <v>0.08165216041279066</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.149477901406911</v>
+        <v>0.08162699741587431</v>
       </c>
       <c r="K21">
-        <v>0.5742512878427775</v>
+        <v>1.148577390981345</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.5740035746129877</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.023070321932209</v>
+        <v>5.019305681853325</v>
       </c>
       <c r="C22">
-        <v>0.823528199268651</v>
+        <v>0.8222866187350917</v>
       </c>
       <c r="D22">
-        <v>0.5303145089727366</v>
+        <v>0.5301109212941526</v>
       </c>
       <c r="E22">
-        <v>0.3900440199028381</v>
+        <v>0.3899024442895183</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.48985480409681</v>
+        <v>5.434853449421723</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.95225899434428</v>
       </c>
       <c r="I22">
-        <v>0.08925351522686498</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.26720409140691</v>
+        <v>0.08922210616769632</v>
       </c>
       <c r="K22">
-        <v>0.6304431149163179</v>
+        <v>1.266072422413075</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.6301275242073245</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.775731231988061</v>
+        <v>4.772408730489474</v>
       </c>
       <c r="C23">
-        <v>0.7797178769050959</v>
+        <v>0.778604561003732</v>
       </c>
       <c r="D23">
-        <v>0.5059706997604962</v>
+        <v>0.5057910877215761</v>
       </c>
       <c r="E23">
-        <v>0.3721231472383408</v>
+        <v>0.3719978101145074</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.77447948941227</v>
+        <v>5.196356810788302</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.48060935644287</v>
       </c>
       <c r="I23">
-        <v>0.0851499126750177</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.20350924282414</v>
+        <v>0.08512199905039353</v>
       </c>
       <c r="K23">
-        <v>0.600078966136806</v>
+        <v>1.202506193499218</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5998013059629201</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.902002230367941</v>
+        <v>3.900005599443148</v>
       </c>
       <c r="C24">
-        <v>0.6269633097239762</v>
+        <v>0.6262442518063551</v>
       </c>
       <c r="D24">
-        <v>0.4190987112881999</v>
+        <v>0.4189895800655847</v>
       </c>
       <c r="E24">
-        <v>0.3082129856693072</v>
+        <v>0.3081352726908335</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.21541557156149</v>
+        <v>4.34293505378858</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.793220687447985</v>
       </c>
       <c r="I24">
-        <v>0.0705226475798213</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9791459627869159</v>
+        <v>0.07050498356400681</v>
       </c>
       <c r="K24">
-        <v>0.4923957228175624</v>
+        <v>0.9785310735960877</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.492229892995141</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.054672294486522</v>
+        <v>3.053636642509446</v>
       </c>
       <c r="C25">
-        <v>0.4816946717642736</v>
+        <v>0.4812770869557994</v>
       </c>
       <c r="D25">
-        <v>0.3334844892389555</v>
+        <v>0.3334251582766683</v>
       </c>
       <c r="E25">
-        <v>0.2452815746159374</v>
+        <v>0.245237611898844</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.6813479257776</v>
+        <v>3.49743352267771</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.122159600153196</v>
       </c>
       <c r="I25">
-        <v>0.05612863898382159</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7624821632067338</v>
+        <v>0.05611828708969568</v>
       </c>
       <c r="K25">
-        <v>0.3872637734307887</v>
+        <v>0.7621525519884571</v>
       </c>
       <c r="L25">
+        <v>0.3871770040531359</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.483455753867247</v>
+        <v>7.222081567463931</v>
       </c>
       <c r="C2">
-        <v>0.3850911819003784</v>
+        <v>1.286181539328595</v>
       </c>
       <c r="D2">
-        <v>0.2749662732632174</v>
+        <v>0.1128688173475467</v>
       </c>
       <c r="E2">
-        <v>0.20228784484312</v>
+        <v>0.02162784082969704</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.91640969960892</v>
+        <v>0.0008749282614735642</v>
       </c>
       <c r="H2">
-        <v>5.974357068810917</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04629822276386086</v>
+        <v>0.08873925237243441</v>
       </c>
       <c r="K2">
-        <v>0.616860845623215</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3159463800973725</v>
+        <v>0.3875113232297025</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.205623934201967</v>
+      </c>
+      <c r="N2">
+        <v>5.095388282605057</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.119895923445256</v>
+        <v>6.471820055526962</v>
       </c>
       <c r="C3">
-        <v>0.3243249546350455</v>
+        <v>1.122226470095939</v>
       </c>
       <c r="D3">
-        <v>0.237311504852812</v>
+        <v>0.1093905931747159</v>
       </c>
       <c r="E3">
-        <v>0.1746283550095242</v>
+        <v>0.02025783104217282</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.540166933535659</v>
+        <v>0.0008908670015158434</v>
       </c>
       <c r="H3">
-        <v>5.231418199922217</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03997504272875219</v>
+        <v>0.07570475075403493</v>
       </c>
       <c r="K3">
-        <v>0.5244050820089399</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2702935791014767</v>
+        <v>0.3605806752883041</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.088774767342912</v>
+      </c>
+      <c r="N3">
+        <v>4.876949364761657</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.905316751451778</v>
+        <v>6.030207395164098</v>
       </c>
       <c r="C4">
-        <v>0.2886439735694069</v>
+        <v>1.02525862097599</v>
       </c>
       <c r="D4">
-        <v>0.2149337953397179</v>
+        <v>0.1074476550874266</v>
       </c>
       <c r="E4">
-        <v>0.1581910906462625</v>
+        <v>0.01943705450543298</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.315617514766473</v>
+        <v>0.0009008200737015193</v>
       </c>
       <c r="H4">
-        <v>4.788171029299662</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03621739259692625</v>
+        <v>0.06794109642038393</v>
       </c>
       <c r="K4">
-        <v>0.469897821319087</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2432467218819809</v>
+        <v>0.3449423899079562</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.020146238639796</v>
+      </c>
+      <c r="N4">
+        <v>4.747592364414686</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.81971721152857</v>
+        <v>5.854426488008187</v>
       </c>
       <c r="C5">
-        <v>0.2744444979851863</v>
+        <v>0.9865406693725731</v>
       </c>
       <c r="D5">
-        <v>0.2059727352759069</v>
+        <v>0.1067004743977833</v>
       </c>
       <c r="E5">
-        <v>0.1516086530098448</v>
+        <v>0.01910656960609547</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.225461035106406</v>
+        <v>0.000904924108709743</v>
       </c>
       <c r="H5">
-        <v>4.610245588165384</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03471256760708918</v>
+        <v>0.06482744100534177</v>
       </c>
       <c r="K5">
-        <v>0.4481655867867289</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2324333916437524</v>
+        <v>0.3387708843616366</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.9928666009296947</v>
+      </c>
+      <c r="N5">
+        <v>4.695926556622823</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.805605963776458</v>
+        <v>5.825474265721027</v>
       </c>
       <c r="C6">
-        <v>0.2721054389022584</v>
+        <v>0.9801561567335284</v>
       </c>
       <c r="D6">
-        <v>0.2044935364114906</v>
+        <v>0.1065789941849005</v>
       </c>
       <c r="E6">
-        <v>0.1505220719047884</v>
+        <v>0.01905190319723449</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.210564709435147</v>
+        <v>0.0009056086507938237</v>
       </c>
       <c r="H6">
-        <v>4.580849703897087</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03446415794729596</v>
+        <v>0.0643131747703265</v>
       </c>
       <c r="K6">
-        <v>0.4445835915844967</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2306493979818853</v>
+        <v>0.3377576092251928</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.988375734985361</v>
+      </c>
+      <c r="N6">
+        <v>4.687406754826952</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.904155268026784</v>
+        <v>6.027820578900048</v>
       </c>
       <c r="C7">
-        <v>0.288451178539475</v>
+        <v>1.024733393027873</v>
       </c>
       <c r="D7">
-        <v>0.214812338591841</v>
+        <v>0.1074374026013416</v>
       </c>
       <c r="E7">
-        <v>0.158101874567997</v>
+        <v>0.01943258272168435</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.314396509046929</v>
+        <v>0.0009008752198711963</v>
       </c>
       <c r="H7">
-        <v>4.78576119829691</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03619699696273493</v>
+        <v>0.06789891418804928</v>
       </c>
       <c r="K7">
-        <v>0.4696028978434015</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2431000930701543</v>
+        <v>0.3448583740643159</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.019775673096191</v>
+      </c>
+      <c r="N7">
+        <v>4.746891522130369</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.356090649354769</v>
+        <v>6.959043663132263</v>
       </c>
       <c r="C8">
-        <v>0.3637558739515043</v>
+        <v>1.228795505691892</v>
       </c>
       <c r="D8">
-        <v>0.2618102831737872</v>
+        <v>0.1116270334265579</v>
       </c>
       <c r="E8">
-        <v>0.1926237696934905</v>
+        <v>0.02115048185310009</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.785160715284036</v>
+        <v>0.0008803933311840267</v>
       </c>
       <c r="H8">
-        <v>5.715156386687084</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04408889499581647</v>
+        <v>0.08418867877363567</v>
       </c>
       <c r="K8">
-        <v>0.5844553602433322</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2999757835020631</v>
+        <v>0.3780236854572649</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.164624910060084</v>
+      </c>
+      <c r="N8">
+        <v>5.018985023023419</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.328909968522282</v>
+        <v>8.968961181631585</v>
       </c>
       <c r="C9">
-        <v>0.528129770088583</v>
+        <v>1.665479000056962</v>
       </c>
       <c r="D9">
-        <v>0.3614069120267942</v>
+        <v>0.1215784777113527</v>
       </c>
       <c r="E9">
-        <v>0.2658016647986514</v>
+        <v>0.02474334755716256</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.774491734891768</v>
+        <v>0.0008412220754369477</v>
       </c>
       <c r="H9">
-        <v>7.669652438948958</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06082106277813182</v>
+        <v>0.1185781744337859</v>
       </c>
       <c r="K9">
-        <v>0.8324319923499317</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4214268472999336</v>
+        <v>0.4514833435927272</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.478582439412449</v>
+      </c>
+      <c r="N9">
+        <v>5.598331924092832</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.12768950384492</v>
+        <v>10.61345140158483</v>
       </c>
       <c r="C10">
-        <v>0.6657137526811994</v>
+        <v>2.02083495999517</v>
       </c>
       <c r="D10">
-        <v>0.4417761375069631</v>
+        <v>0.1302995002722867</v>
       </c>
       <c r="E10">
-        <v>0.3248940755578715</v>
+        <v>0.02762771795118191</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.567333652523132</v>
+        <v>0.0008124904514820256</v>
       </c>
       <c r="H10">
-        <v>9.236846173730953</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07433974332700899</v>
+        <v>0.1462698322708462</v>
       </c>
       <c r="K10">
-        <v>1.03689113482946</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5203695384337479</v>
+        <v>0.5128150984159845</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.73632041196376</v>
+      </c>
+      <c r="N10">
+        <v>6.065373223319341</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.51879904339188</v>
+        <v>11.41444024606267</v>
       </c>
       <c r="C11">
-        <v>0.7339961894183773</v>
+        <v>2.19362371303589</v>
       </c>
       <c r="D11">
-        <v>0.4806984134964978</v>
+        <v>0.1346760305983707</v>
       </c>
       <c r="E11">
-        <v>0.3535298348130382</v>
+        <v>0.02902571446774083</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.950018502224111</v>
+        <v>0.0007992664225097575</v>
       </c>
       <c r="H11">
-        <v>9.993491584091601</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08089386933590603</v>
+        <v>0.15967175971209</v>
       </c>
       <c r="K11">
-        <v>1.137294923015077</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.56859826993702</v>
+        <v>0.5429704264658284</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.862055346125345</v>
+      </c>
+      <c r="N11">
+        <v>6.290763782508407</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.67195720991225</v>
+        <v>11.72716206838641</v>
       </c>
       <c r="C12">
-        <v>0.7609042662369347</v>
+        <v>2.261055429275757</v>
       </c>
       <c r="D12">
-        <v>0.4958658043090622</v>
+        <v>0.1364033916681535</v>
       </c>
       <c r="E12">
-        <v>0.3646922242899819</v>
+        <v>0.02957111482994357</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.098951918247451</v>
+        <v>0.0007942188396084011</v>
       </c>
       <c r="H12">
-        <v>10.28799260418003</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08344931350716678</v>
+        <v>0.1648930852030333</v>
       </c>
       <c r="K12">
-        <v>1.176666814628547</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5874486224361917</v>
+        <v>0.5547855615182584</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.911173979546163</v>
+      </c>
+      <c r="N12">
+        <v>6.378400101951001</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.638726898384562</v>
+        <v>11.65935994268875</v>
       </c>
       <c r="C13">
-        <v>0.7550579538692546</v>
+        <v>2.246436356051788</v>
       </c>
       <c r="D13">
-        <v>0.4925785073799318</v>
+        <v>0.1360280485825385</v>
       </c>
       <c r="E13">
-        <v>0.3622727772048151</v>
+        <v>0.02945287181844769</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.066681589020504</v>
+        <v>0.0007953080354990304</v>
       </c>
       <c r="H13">
-        <v>10.2241799199918</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08289539122944234</v>
+        <v>0.1637614986745461</v>
       </c>
       <c r="K13">
-        <v>1.16812180733271</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5833603899674742</v>
+        <v>0.552222010732379</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.900523117615776</v>
+      </c>
+      <c r="N13">
+        <v>6.359416452416156</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.531291011969529</v>
+        <v>11.43996763760481</v>
       </c>
       <c r="C14">
-        <v>0.7361872978715951</v>
+        <v>2.199128614627455</v>
       </c>
       <c r="D14">
-        <v>0.4819370639592648</v>
+        <v>0.1348166632482162</v>
       </c>
       <c r="E14">
-        <v>0.3544413398898598</v>
+        <v>0.02907023945705056</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.962185081809992</v>
+        <v>0.0007988520733217688</v>
       </c>
       <c r="H14">
-        <v>10.01754919564223</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08110253019264491</v>
+        <v>0.1600981854318562</v>
       </c>
       <c r="K14">
-        <v>1.140505052048283</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5701364958198312</v>
+        <v>0.5439340532805659</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.866064300761408</v>
+      </c>
+      <c r="N14">
+        <v>6.297925043987448</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.466178181013959</v>
+        <v>11.30686938861663</v>
       </c>
       <c r="C15">
-        <v>0.7247733784278978</v>
+        <v>2.170425356560713</v>
       </c>
       <c r="D15">
-        <v>0.4754777007468647</v>
+        <v>0.1340841590618282</v>
       </c>
       <c r="E15">
-        <v>0.3496881328455146</v>
+        <v>0.02883807665655524</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.898730577127935</v>
+        <v>0.0008010170939145744</v>
       </c>
       <c r="H15">
-        <v>9.892078480602663</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08001445595717982</v>
+        <v>0.1578743959708788</v>
       </c>
       <c r="K15">
-        <v>1.123774874591319</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5621172212634775</v>
+        <v>0.5389114416859542</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.845163029303777</v>
+      </c>
+      <c r="N15">
+        <v>6.260571901420803</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.102772352231398</v>
+        <v>10.56231317679374</v>
       </c>
       <c r="C16">
-        <v>0.6613843165851847</v>
+        <v>2.009798767850555</v>
       </c>
       <c r="D16">
-        <v>0.4392870678962026</v>
+        <v>0.1300226174621244</v>
       </c>
       <c r="E16">
-        <v>0.3230632465044039</v>
+        <v>0.02753837486802091</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.542835258180077</v>
+        <v>0.0008133501521452822</v>
       </c>
       <c r="H16">
-        <v>9.188411879022908</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07392077788761497</v>
+        <v>0.1454126214165186</v>
       </c>
       <c r="K16">
-        <v>1.030501157465778</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5172923320095748</v>
+        <v>0.5108954906384326</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.728296936795203</v>
+      </c>
+      <c r="N16">
+        <v>6.050937786750239</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.887611386817696</v>
+        <v>10.1202481127508</v>
       </c>
       <c r="C17">
-        <v>0.6241015464133568</v>
+        <v>1.914365765946457</v>
       </c>
       <c r="D17">
-        <v>0.4177464260218358</v>
+        <v>0.1276429897704929</v>
       </c>
       <c r="E17">
-        <v>0.3072210852875514</v>
+        <v>0.02676536023605536</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.330684408722846</v>
+        <v>0.0008208653090020733</v>
       </c>
       <c r="H17">
-        <v>8.769003029264724</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07029581833580067</v>
+        <v>0.137993317209002</v>
       </c>
       <c r="K17">
-        <v>0.9753560592136523</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4906966943909339</v>
+        <v>0.4943319592862849</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.658959257484312</v>
+      </c>
+      <c r="N17">
+        <v>5.925918798831219</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.766389838936448</v>
+        <v>9.870833784004276</v>
       </c>
       <c r="C18">
-        <v>0.6031764546229397</v>
+        <v>1.860494521901103</v>
       </c>
       <c r="D18">
-        <v>0.405572682513025</v>
+        <v>0.126312009949217</v>
       </c>
       <c r="E18">
-        <v>0.2982693899520541</v>
+        <v>0.02632855944346346</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.210671213014592</v>
+        <v>0.0008251746276223556</v>
       </c>
       <c r="H18">
-        <v>8.531762655805579</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06824778281465882</v>
+        <v>0.133799475019778</v>
       </c>
       <c r="K18">
-        <v>0.9443129887634996</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4756935260001853</v>
+        <v>0.4850121602656685</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.619856513387745</v>
+      </c>
+      <c r="N18">
+        <v>5.855197718235189</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.725753446457986</v>
+        <v>9.787171467935309</v>
       </c>
       <c r="C19">
-        <v>0.5961746492096722</v>
+        <v>1.842419104353269</v>
       </c>
       <c r="D19">
-        <v>0.4014855951118932</v>
+        <v>0.1258675419593587</v>
       </c>
       <c r="E19">
-        <v>0.2952642800251937</v>
+        <v>0.02618191235594836</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.17035957208148</v>
+        <v>0.0008266318960646314</v>
       </c>
       <c r="H19">
-        <v>8.452078275022842</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06756029297133281</v>
+        <v>0.1323913321925403</v>
       </c>
       <c r="K19">
-        <v>0.9339107064731138</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4706609279689644</v>
+        <v>0.4818902975682846</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.606743109000789</v>
+      </c>
+      <c r="N19">
+        <v>5.831445167059826</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.910246635813678</v>
+        <v>10.16679312208464</v>
       </c>
       <c r="C20">
-        <v>0.6280151713383191</v>
+        <v>1.92441670026642</v>
       </c>
       <c r="D20">
-        <v>0.4200165530414779</v>
+        <v>0.1278923286832168</v>
       </c>
       <c r="E20">
-        <v>0.3088904941149124</v>
+        <v>0.02684681648778664</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.353054683989086</v>
+        <v>0.0008200667893296654</v>
       </c>
       <c r="H20">
-        <v>8.813225757829599</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07067777903063899</v>
+        <v>0.1387753058149173</v>
       </c>
       <c r="K20">
-        <v>0.9811546563517766</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4934966281603579</v>
+        <v>0.4960732766639353</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.666257960434294</v>
+      </c>
+      <c r="N20">
+        <v>5.939101713250921</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.562700411317849</v>
+        <v>11.50413662155211</v>
       </c>
       <c r="C21">
-        <v>0.7416993556896045</v>
+        <v>2.212966059131531</v>
       </c>
       <c r="D21">
-        <v>0.4850502602367612</v>
+        <v>0.1351704717016133</v>
       </c>
       <c r="E21">
-        <v>0.3567323551490418</v>
+        <v>0.0291821591630228</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.992761209576997</v>
+        <v>0.0007978123513996744</v>
       </c>
       <c r="H21">
-        <v>10.07800943517867</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08162699741587431</v>
+        <v>0.1611699351474201</v>
       </c>
       <c r="K21">
-        <v>1.148577390981345</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5740035746129877</v>
+        <v>0.5463570188036329</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.876142197910568</v>
+      </c>
+      <c r="N21">
+        <v>6.315920599896913</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.019305681853325</v>
+        <v>12.4341839053219</v>
       </c>
       <c r="C22">
-        <v>0.8222866187350917</v>
+        <v>2.413476783210626</v>
       </c>
       <c r="D22">
-        <v>0.5301109212941526</v>
+        <v>0.1403429608942304</v>
       </c>
       <c r="E22">
-        <v>0.3899024442895183</v>
+        <v>0.03080425940134646</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.434853449421723</v>
+        <v>0.0007830231980484977</v>
       </c>
       <c r="H22">
-        <v>10.95225899434428</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08922210616769632</v>
+        <v>0.1766794406891066</v>
       </c>
       <c r="K22">
-        <v>1.266072422413075</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6301275242073245</v>
+        <v>0.5815760595213106</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.022278962805785</v>
+      </c>
+      <c r="N22">
+        <v>6.575798635606645</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.772408730489474</v>
+        <v>11.93195263646021</v>
       </c>
       <c r="C23">
-        <v>0.778604561003732</v>
+        <v>2.305208317345887</v>
       </c>
       <c r="D23">
-        <v>0.5057910877215761</v>
+        <v>0.1375397767032496</v>
       </c>
       <c r="E23">
-        <v>0.3719978101145074</v>
+        <v>0.02992825417929978</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.196356810788302</v>
+        <v>0.0007909459727771567</v>
       </c>
       <c r="H23">
-        <v>10.48060935644287</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08512199905039353</v>
+        <v>0.1683094815246591</v>
       </c>
       <c r="K23">
-        <v>1.202506193499218</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5998013059629201</v>
+        <v>0.5625346762945185</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.943348273326734</v>
+      </c>
+      <c r="N23">
+        <v>6.43568156909032</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.900005599443148</v>
+        <v>10.14573550493469</v>
       </c>
       <c r="C24">
-        <v>0.6262442518063551</v>
+        <v>1.919869604023461</v>
       </c>
       <c r="D24">
-        <v>0.4189895800655847</v>
+        <v>0.1277794878104856</v>
       </c>
       <c r="E24">
-        <v>0.3081352726908335</v>
+        <v>0.02680996665746527</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.34293505378858</v>
+        <v>0.0008204278338617274</v>
       </c>
       <c r="H24">
-        <v>8.793220687447985</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07050498356400681</v>
+        <v>0.1384215478988082</v>
       </c>
       <c r="K24">
-        <v>0.9785310735960877</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.492229892995141</v>
+        <v>0.4952854005705234</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.662955868813924</v>
+      </c>
+      <c r="N24">
+        <v>5.933138153901666</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.053636642509446</v>
+        <v>8.400443842564982</v>
       </c>
       <c r="C25">
-        <v>0.4812770869557994</v>
+        <v>1.542314642080157</v>
       </c>
       <c r="D25">
-        <v>0.3334251582766683</v>
+        <v>0.1186682733529878</v>
       </c>
       <c r="E25">
-        <v>0.245237611898844</v>
+        <v>0.0237376039566497</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.49743352267771</v>
+        <v>0.0008517638162472825</v>
       </c>
       <c r="H25">
-        <v>7.122159600153196</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05611828708969568</v>
+        <v>0.1089277735618452</v>
       </c>
       <c r="K25">
-        <v>0.7621525519884571</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3871770040531359</v>
+        <v>0.4305049796820555</v>
       </c>
       <c r="M25">
+        <v>1.389637239700264</v>
+      </c>
+      <c r="N25">
+        <v>5.435461877874047</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.222081567463931</v>
+        <v>2.496250209171933</v>
       </c>
       <c r="C2">
-        <v>1.286181539328595</v>
+        <v>0.6049813738353009</v>
       </c>
       <c r="D2">
-        <v>0.1128688173475467</v>
+        <v>0.2046749189304222</v>
       </c>
       <c r="E2">
-        <v>0.02162784082969704</v>
+        <v>0.197615780872475</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008749282614735642</v>
+        <v>0.3121935328167069</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2260112679959008</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08873925237243441</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3875113232297025</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.205623934201967</v>
+        <v>0.9729424625340286</v>
       </c>
       <c r="N2">
-        <v>5.095388282605057</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.086329860234571</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.471820055526962</v>
+        <v>2.175772927821072</v>
       </c>
       <c r="C3">
-        <v>1.122226470095939</v>
+        <v>0.5372590269323894</v>
       </c>
       <c r="D3">
-        <v>0.1093905931747159</v>
+        <v>0.1773678780031673</v>
       </c>
       <c r="E3">
-        <v>0.02025783104217282</v>
+        <v>0.1729924682417519</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008908670015158434</v>
+        <v>0.2837881784448015</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2200909629412635</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07570475075403493</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3605806752883041</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.088774767342912</v>
+        <v>0.8428908660975694</v>
       </c>
       <c r="N3">
-        <v>4.876949364761657</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.013266759220812</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.030207395164098</v>
+        <v>1.97924248355514</v>
       </c>
       <c r="C4">
-        <v>1.02525862097599</v>
+        <v>0.4956959420014186</v>
       </c>
       <c r="D4">
-        <v>0.1074476550874266</v>
+        <v>0.1607721541057145</v>
       </c>
       <c r="E4">
-        <v>0.01943705450543298</v>
+        <v>0.1584269527096041</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009008200737015193</v>
+        <v>0.2675534566303952</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2171822737936324</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06794109642038393</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3449423899079562</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.020146238639796</v>
+        <v>0.7635532671875112</v>
       </c>
       <c r="N4">
-        <v>4.747592364414686</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.972472394004356</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.854426488008187</v>
+        <v>1.899184171697783</v>
       </c>
       <c r="C5">
-        <v>0.9865406693725731</v>
+        <v>0.4787575615864057</v>
       </c>
       <c r="D5">
-        <v>0.1067004743977833</v>
+        <v>0.1540468739592455</v>
       </c>
       <c r="E5">
-        <v>0.01910656960609547</v>
+        <v>0.1526167374446104</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000904924108709743</v>
+        <v>0.2612180958036276</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2161692982654486</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06482744100534177</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3387708843616366</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9928666009296947</v>
+        <v>0.7313289313616025</v>
       </c>
       <c r="N5">
-        <v>4.695926556622823</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9568007610130849</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.825474265721027</v>
+        <v>1.885891438806453</v>
       </c>
       <c r="C6">
-        <v>0.9801561567335284</v>
+        <v>0.4759447302229773</v>
       </c>
       <c r="D6">
-        <v>0.1065789941849005</v>
+        <v>0.1529322668303621</v>
       </c>
       <c r="E6">
-        <v>0.01905190319723449</v>
+        <v>0.1516591405506205</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009056086507938237</v>
+        <v>0.2601824050727117</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2160112125017264</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0643131747703265</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3377576092251928</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.988375734985361</v>
+        <v>0.7259838857220799</v>
       </c>
       <c r="N6">
-        <v>4.687406754826952</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9542540429844024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.027820578900048</v>
+        <v>1.978162710487794</v>
       </c>
       <c r="C7">
-        <v>1.024733393027873</v>
+        <v>0.4954675168026199</v>
       </c>
       <c r="D7">
-        <v>0.1074374026013416</v>
+        <v>0.1606813092095365</v>
       </c>
       <c r="E7">
-        <v>0.01943258272168435</v>
+        <v>0.1583481041369836</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009008752198711963</v>
+        <v>0.2674669096735656</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2171679278745273</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06789891418804928</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3448583740643159</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1.019775673096191</v>
+        <v>0.7631182771297063</v>
       </c>
       <c r="N7">
-        <v>4.746891522130369</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9722572745525184</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.959043663132263</v>
+        <v>2.385679027632875</v>
       </c>
       <c r="C8">
-        <v>1.228795505691892</v>
+        <v>0.5816231785557306</v>
       </c>
       <c r="D8">
-        <v>0.1116270334265579</v>
+        <v>0.1952206485441508</v>
       </c>
       <c r="E8">
-        <v>0.02115048185310009</v>
+        <v>0.1890022395117228</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008803933311840267</v>
+        <v>0.3021348017425538</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2238127843904891</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08418867877363567</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3780236854572649</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1.164624910060084</v>
+        <v>0.9279794941072055</v>
       </c>
       <c r="N8">
-        <v>5.018985023023419</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.060250150370194</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.968961181631585</v>
+        <v>3.188346526399926</v>
       </c>
       <c r="C9">
-        <v>1.665479000056962</v>
+        <v>0.7510156612512446</v>
       </c>
       <c r="D9">
-        <v>0.1215784777113527</v>
+        <v>0.2645688842149383</v>
       </c>
       <c r="E9">
-        <v>0.02474334755716256</v>
+        <v>0.2541779837111307</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008412220754369477</v>
+        <v>0.3807939169005721</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2431042245125496</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1185781744337859</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4514833435927272</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.478582439412449</v>
+        <v>1.256488903049245</v>
       </c>
       <c r="N9">
-        <v>5.598331924092832</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.268454058778048</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.61345140158483</v>
+        <v>3.782676907792222</v>
       </c>
       <c r="C10">
-        <v>2.02083495999517</v>
+        <v>0.8761944100610037</v>
       </c>
       <c r="D10">
-        <v>0.1302995002722867</v>
+        <v>0.3168966194242415</v>
       </c>
       <c r="E10">
-        <v>0.02762771795118191</v>
+        <v>0.306170748144666</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008124904514820256</v>
+        <v>0.4467445921454924</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2618380357224623</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1462698322708462</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5128150984159845</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.73632041196376</v>
+        <v>1.502756017341056</v>
       </c>
       <c r="N10">
-        <v>6.065373223319341</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.448214812412374</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.41444024606267</v>
+        <v>4.054659153677676</v>
       </c>
       <c r="C11">
-        <v>2.19362371303589</v>
+        <v>0.9334124626820994</v>
       </c>
       <c r="D11">
-        <v>0.1346760305983707</v>
+        <v>0.3410957323608557</v>
       </c>
       <c r="E11">
-        <v>0.02902571446774083</v>
+        <v>0.3309683457518204</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007992664225097575</v>
+        <v>0.4789199997018443</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2715313690013659</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.15967175971209</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5429704264658284</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.862055346125345</v>
+        <v>1.616281709301234</v>
       </c>
       <c r="N11">
-        <v>6.290763782508407</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.537038938447466</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.72716206838641</v>
+        <v>4.157938799658552</v>
       </c>
       <c r="C12">
-        <v>2.261055429275757</v>
+        <v>0.9551289956075664</v>
       </c>
       <c r="D12">
-        <v>0.1364033916681535</v>
+        <v>0.3503246183933584</v>
       </c>
       <c r="E12">
-        <v>0.02957111482994357</v>
+        <v>0.3405467524063965</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007942188396084011</v>
+        <v>0.4914532405149572</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2753869254769938</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1648930852030333</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5547855615182584</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.911173979546163</v>
+        <v>1.659525129824786</v>
       </c>
       <c r="N12">
-        <v>6.378400101951001</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.571800362293459</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.65935994268875</v>
+        <v>4.135682067344419</v>
       </c>
       <c r="C13">
-        <v>2.246436356051788</v>
+        <v>0.9504495904697308</v>
       </c>
       <c r="D13">
-        <v>0.1360280485825385</v>
+        <v>0.3483339711222015</v>
       </c>
       <c r="E13">
-        <v>0.02945287181844769</v>
+        <v>0.3384751090017062</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007953080354990304</v>
+        <v>0.4887378409884064</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2745480609443263</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1637614986745461</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.552222010732379</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.900523117615776</v>
+        <v>1.650199951933772</v>
       </c>
       <c r="N13">
-        <v>6.359416452416156</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.564261917728373</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.43996763760481</v>
+        <v>4.063149981266349</v>
       </c>
       <c r="C14">
-        <v>2.199128614627455</v>
+        <v>0.9351980465151257</v>
       </c>
       <c r="D14">
-        <v>0.1348166632482162</v>
+        <v>0.3418536408511414</v>
       </c>
       <c r="E14">
-        <v>0.02907023945705056</v>
+        <v>0.3317524553738664</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007988520733217688</v>
+        <v>0.4799438999516781</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2718447627073601</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1600981854318562</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5439340532805659</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.866064300761408</v>
+        <v>1.619834054190534</v>
       </c>
       <c r="N14">
-        <v>6.297925043987448</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.539875546313596</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.30686938861663</v>
+        <v>4.018760873205451</v>
       </c>
       <c r="C15">
-        <v>2.170425356560713</v>
+        <v>0.925862767069475</v>
       </c>
       <c r="D15">
-        <v>0.1340841590618282</v>
+        <v>0.3378930048562978</v>
       </c>
       <c r="E15">
-        <v>0.02883807665655524</v>
+        <v>0.3276598634852377</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008010170939145744</v>
+        <v>0.474603958593903</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2702135077856411</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1578743959708788</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5389114416859542</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.845163029303777</v>
+        <v>1.601268305327622</v>
       </c>
       <c r="N15">
-        <v>6.260571901420803</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.525088269404336</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.56231317679374</v>
+        <v>3.764939229219181</v>
       </c>
       <c r="C16">
-        <v>2.009798767850555</v>
+        <v>0.8724614111083042</v>
       </c>
       <c r="D16">
-        <v>0.1300226174621244</v>
+        <v>0.315323801636481</v>
       </c>
       <c r="E16">
-        <v>0.02753837486802091</v>
+        <v>0.3045751655931852</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008133501521452822</v>
+        <v>0.4446886494880857</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2612294982831429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1454126214165186</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5108954906384326</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.728296936795203</v>
+        <v>1.49537017851948</v>
       </c>
       <c r="N16">
-        <v>6.050937786750239</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.442561156576545</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.1202481127508</v>
+        <v>3.609678706953105</v>
       </c>
       <c r="C17">
-        <v>1.914365765946457</v>
+        <v>0.8397782780721741</v>
       </c>
       <c r="D17">
-        <v>0.1276429897704929</v>
+        <v>0.3015852578069911</v>
       </c>
       <c r="E17">
-        <v>0.02676536023605536</v>
+        <v>0.2907228091060787</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008208653090020733</v>
+        <v>0.4269184019355237</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2560293646734806</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.137993317209002</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4943319592862849</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.658959257484312</v>
+        <v>1.430814845223509</v>
       </c>
       <c r="N17">
-        <v>5.925918798831219</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.393815746473223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.870833784004276</v>
+        <v>3.520525833032593</v>
       </c>
       <c r="C18">
-        <v>1.860494521901103</v>
+        <v>0.8210049082308331</v>
       </c>
       <c r="D18">
-        <v>0.126312009949217</v>
+        <v>0.2937198438182804</v>
       </c>
       <c r="E18">
-        <v>0.02632855944346346</v>
+        <v>0.2828616244763538</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008251746276223556</v>
+        <v>0.4168997021164671</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.253147559786072</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.133799475019778</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4850121602656685</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.619856513387745</v>
+        <v>1.393822780594846</v>
       </c>
       <c r="N18">
-        <v>5.855197718235189</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.366435018357009</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.787171467935309</v>
+        <v>3.49036422831648</v>
       </c>
       <c r="C19">
-        <v>1.842419104353269</v>
+        <v>0.8146525912109155</v>
       </c>
       <c r="D19">
-        <v>0.1258675419593587</v>
+        <v>0.2910627963170498</v>
       </c>
       <c r="E19">
-        <v>0.02618191235594836</v>
+        <v>0.2802175500279844</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008266318960646314</v>
+        <v>0.4135412226470265</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2521901016858408</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1323913321925403</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4818902975682846</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.606743109000789</v>
+        <v>1.381320571980851</v>
       </c>
       <c r="N19">
-        <v>5.831445167059826</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.357273847967235</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.16679312208464</v>
+        <v>3.626190677066575</v>
       </c>
       <c r="C20">
-        <v>1.92441670026642</v>
+        <v>0.8432547860961108</v>
       </c>
       <c r="D20">
-        <v>0.1278923286832168</v>
+        <v>0.3030438991169149</v>
       </c>
       <c r="E20">
-        <v>0.02684681648778664</v>
+        <v>0.2921862502610324</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008200667893296654</v>
+        <v>0.4287888859722102</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2565715137626796</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1387753058149173</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4960732766639353</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.666257960434294</v>
+        <v>1.437672274540333</v>
       </c>
       <c r="N20">
-        <v>5.939101713250921</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.398936069820991</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.50413662155211</v>
+        <v>4.084446206951611</v>
       </c>
       <c r="C21">
-        <v>2.212966059131531</v>
+        <v>0.9396763727011717</v>
       </c>
       <c r="D21">
-        <v>0.1351704717016133</v>
+        <v>0.3437552307271403</v>
       </c>
       <c r="E21">
-        <v>0.0291821591630228</v>
+        <v>0.3337217593247459</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007978123513996744</v>
+        <v>0.4825171122660521</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2726336302380332</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1611699351474201</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5463570188036329</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.876142197910568</v>
+        <v>1.628746045124117</v>
       </c>
       <c r="N21">
-        <v>6.315920599896913</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.547006924684297</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.4341839053219</v>
+        <v>4.385637204797092</v>
       </c>
       <c r="C22">
-        <v>2.413476783210626</v>
+        <v>1.002986117603342</v>
       </c>
       <c r="D22">
-        <v>0.1403429608942304</v>
+        <v>0.3707469349858599</v>
       </c>
       <c r="E22">
-        <v>0.03080425940134646</v>
+        <v>0.3619765398084951</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007830231980484977</v>
+        <v>0.519685790826756</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2842176157342493</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1766794406891066</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5815760595213106</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>2.022278962805785</v>
+        <v>1.755123085397713</v>
       </c>
       <c r="N22">
-        <v>6.575798635606645</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.650400111664339</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.93195263646021</v>
+        <v>4.2247120028984</v>
       </c>
       <c r="C23">
-        <v>2.305208317345887</v>
+        <v>0.9691661962011153</v>
       </c>
       <c r="D23">
-        <v>0.1375397767032496</v>
+        <v>0.3563028082296</v>
       </c>
       <c r="E23">
-        <v>0.02992825417929978</v>
+        <v>0.3467866324366398</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007909459727771567</v>
+        <v>0.4996473100318752</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2779297834094763</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1683094815246591</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5625346762945185</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.943348273326734</v>
+        <v>1.687522450169027</v>
       </c>
       <c r="N23">
-        <v>6.43568156909032</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.594571897596808</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.14573550493469</v>
+        <v>3.618725281481773</v>
       </c>
       <c r="C24">
-        <v>1.919869604023461</v>
+        <v>0.8416830058582434</v>
       </c>
       <c r="D24">
-        <v>0.1277794878104856</v>
+        <v>0.3023843450402239</v>
       </c>
       <c r="E24">
-        <v>0.02680996665746527</v>
+        <v>0.2915243103005665</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008204278338617274</v>
+        <v>0.4279426272159412</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2563260735490758</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1384215478988082</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4952854005705234</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.662955868813924</v>
+        <v>1.434571654668531</v>
       </c>
       <c r="N24">
-        <v>5.933138153901666</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.396619175125352</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.400443842564982</v>
+        <v>2.970584390404611</v>
       </c>
       <c r="C25">
-        <v>1.542314642080157</v>
+        <v>0.7050985189449932</v>
       </c>
       <c r="D25">
-        <v>0.1186682733529878</v>
+        <v>0.2455965212069628</v>
       </c>
       <c r="E25">
-        <v>0.0237376039566497</v>
+        <v>0.2359041588600945</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008517638162472825</v>
+        <v>0.3582087458392209</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.237141790404749</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1089277735618452</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4305049796820555</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.389637239700264</v>
+        <v>1.166890007551238</v>
       </c>
       <c r="N25">
-        <v>5.435461877874047</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.207813766411903</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.496250209171933</v>
+        <v>0.8147768276045895</v>
       </c>
       <c r="C2">
-        <v>0.6049813738353009</v>
+        <v>0.2136217747381863</v>
       </c>
       <c r="D2">
-        <v>0.2046749189304222</v>
+        <v>0.07946615628169695</v>
       </c>
       <c r="E2">
-        <v>0.197615780872475</v>
+        <v>0.1191513367428243</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3121935328167069</v>
+        <v>0.310941360334084</v>
       </c>
       <c r="H2">
-        <v>0.2260112679959008</v>
+        <v>0.4658305808968066</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9729424625340286</v>
+        <v>0.3380024614860631</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.086329860234571</v>
+        <v>1.482401996685581</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.175772927821072</v>
+        <v>0.7131801136489457</v>
       </c>
       <c r="C3">
-        <v>0.5372590269323894</v>
+        <v>0.1910689596984696</v>
       </c>
       <c r="D3">
-        <v>0.1773678780031673</v>
+        <v>0.0719541466638276</v>
       </c>
       <c r="E3">
-        <v>0.1729924682417519</v>
+        <v>0.1143489186497888</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2837881784448015</v>
+        <v>0.308828250439781</v>
       </c>
       <c r="H3">
-        <v>0.2200909629412635</v>
+        <v>0.4696116846105838</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8428908660975694</v>
+        <v>0.2999044575238798</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.013266759220812</v>
+        <v>1.485516303262898</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.97924248355514</v>
+        <v>0.6506230520072052</v>
       </c>
       <c r="C4">
-        <v>0.4956959420014186</v>
+        <v>0.1771560867453843</v>
       </c>
       <c r="D4">
-        <v>0.1607721541057145</v>
+        <v>0.06737620766929808</v>
       </c>
       <c r="E4">
-        <v>0.1584269527096041</v>
+        <v>0.1115336791581427</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2675534566303952</v>
+        <v>0.3079197556072728</v>
       </c>
       <c r="H4">
-        <v>0.2171822737936324</v>
+        <v>0.4722743592603038</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7635532671875112</v>
+        <v>0.2765429980186482</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.972472394004356</v>
+        <v>1.488955868022387</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.899184171697783</v>
+        <v>0.6250875958371012</v>
       </c>
       <c r="C5">
-        <v>0.4787575615864057</v>
+        <v>0.17147041271636</v>
       </c>
       <c r="D5">
-        <v>0.1540468739592455</v>
+        <v>0.06551931194559302</v>
       </c>
       <c r="E5">
-        <v>0.1526167374446104</v>
+        <v>0.1104196809051956</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2612180958036276</v>
+        <v>0.3076468350770156</v>
       </c>
       <c r="H5">
-        <v>0.2161692982654486</v>
+        <v>0.473445046195728</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7313289313616025</v>
+        <v>0.2670308561785646</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9568007610130849</v>
+        <v>1.490740212568824</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.885891438806453</v>
+        <v>0.6208448999108782</v>
       </c>
       <c r="C6">
-        <v>0.4759447302229773</v>
+        <v>0.1705253515035565</v>
       </c>
       <c r="D6">
-        <v>0.1529322668303621</v>
+        <v>0.0652114979318128</v>
       </c>
       <c r="E6">
-        <v>0.1516591405506205</v>
+        <v>0.1102367001066895</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2601824050727117</v>
+        <v>0.3076073784722055</v>
       </c>
       <c r="H6">
-        <v>0.2160112125017264</v>
+        <v>0.4736446054088361</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7259838857220799</v>
+        <v>0.2654518484542194</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9542540429844024</v>
+        <v>1.491059575061428</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.978162710487794</v>
+        <v>0.6502788439597964</v>
       </c>
       <c r="C7">
-        <v>0.4954675168026199</v>
+        <v>0.1770794723125277</v>
       </c>
       <c r="D7">
-        <v>0.1606813092095365</v>
+        <v>0.06735112991303538</v>
       </c>
       <c r="E7">
-        <v>0.1583481041369836</v>
+        <v>0.1115185212530605</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2674669096735656</v>
+        <v>0.3079156816245288</v>
       </c>
       <c r="H7">
-        <v>0.2171679278745273</v>
+        <v>0.4722898010438215</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7631182771297063</v>
+        <v>0.2764146820809188</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9722572745525184</v>
+        <v>1.488978384634066</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.385679027632875</v>
+        <v>0.7797836566487035</v>
       </c>
       <c r="C8">
-        <v>0.5816231785557306</v>
+        <v>0.2058593410120295</v>
       </c>
       <c r="D8">
-        <v>0.1952206485441508</v>
+        <v>0.0768688507047699</v>
       </c>
       <c r="E8">
-        <v>0.1890022395117228</v>
+        <v>0.1174675644107452</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3021348017425538</v>
+        <v>0.3101317229486824</v>
       </c>
       <c r="H8">
-        <v>0.2238127843904891</v>
+        <v>0.4670634351289493</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9279794941072055</v>
+        <v>0.3248598979788184</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.060250150370194</v>
+        <v>1.483157973627584</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.188346526399926</v>
+        <v>1.032295798945086</v>
       </c>
       <c r="C9">
-        <v>0.7510156612512446</v>
+        <v>0.2617646604939523</v>
       </c>
       <c r="D9">
-        <v>0.2645688842149383</v>
+        <v>0.09580821940433282</v>
       </c>
       <c r="E9">
-        <v>0.2541779837111307</v>
+        <v>0.1302080186562691</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3807939169005721</v>
+        <v>0.3175873270954099</v>
       </c>
       <c r="H9">
-        <v>0.2431042245125496</v>
+        <v>0.4595271652074189</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.256488903049245</v>
+        <v>0.4201072830179697</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.268454058778048</v>
+        <v>1.483927238769212</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.782676907792222</v>
+        <v>1.216889297979321</v>
       </c>
       <c r="C10">
-        <v>0.8761944100610037</v>
+        <v>0.3025002069578591</v>
       </c>
       <c r="D10">
-        <v>0.3168966194242415</v>
+        <v>0.1098944840981062</v>
       </c>
       <c r="E10">
-        <v>0.306170748144666</v>
+        <v>0.140245773966825</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4467445921454924</v>
+        <v>0.3249947248658458</v>
       </c>
       <c r="H10">
-        <v>0.2618380357224623</v>
+        <v>0.4556532407754332</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.502756017341056</v>
+        <v>0.49024534142292</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.448214812412374</v>
+        <v>1.492011242619725</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.054659153677676</v>
+        <v>1.30065611261108</v>
       </c>
       <c r="C11">
-        <v>0.9334124626820994</v>
+        <v>0.320955844831218</v>
       </c>
       <c r="D11">
-        <v>0.3410957323608557</v>
+        <v>0.116340825441597</v>
       </c>
       <c r="E11">
-        <v>0.3309683457518204</v>
+        <v>0.1449641689515673</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4789199997018443</v>
+        <v>0.3287908866217464</v>
       </c>
       <c r="H11">
-        <v>0.2715313690013659</v>
+        <v>0.4542540172824374</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.616281709301234</v>
+        <v>0.522190228723602</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.537038938447466</v>
+        <v>1.497341357359858</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.157938799658552</v>
+        <v>1.332345770163272</v>
       </c>
       <c r="C12">
-        <v>0.9551289956075664</v>
+        <v>0.3279334060695476</v>
       </c>
       <c r="D12">
-        <v>0.3503246183933584</v>
+        <v>0.1187874519214915</v>
       </c>
       <c r="E12">
-        <v>0.3405467524063965</v>
+        <v>0.1467731584642422</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4914532405149572</v>
+        <v>0.3302902898558386</v>
       </c>
       <c r="H12">
-        <v>0.2753869254769938</v>
+        <v>0.4537765332737536</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.659525129824786</v>
+        <v>0.5342925485855545</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.571800362293459</v>
+        <v>1.49959892564803</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.135682067344419</v>
+        <v>1.32552223762508</v>
       </c>
       <c r="C13">
-        <v>0.9504495904697308</v>
+        <v>0.3264311670004076</v>
       </c>
       <c r="D13">
-        <v>0.3483339711222015</v>
+        <v>0.1182602807069344</v>
       </c>
       <c r="E13">
-        <v>0.3384751090017062</v>
+        <v>0.1463825656186231</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4887378409884064</v>
+        <v>0.3299646057245695</v>
       </c>
       <c r="H13">
-        <v>0.2745480609443263</v>
+        <v>0.4538770361127575</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.650199951933772</v>
+        <v>0.5316858548596315</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.564261917728373</v>
+        <v>1.499102056651111</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.063149981266349</v>
+        <v>1.30326386961832</v>
       </c>
       <c r="C14">
-        <v>0.9351980465151257</v>
+        <v>0.3215301193792186</v>
       </c>
       <c r="D14">
-        <v>0.3418536408511414</v>
+        <v>0.1165419998455093</v>
       </c>
       <c r="E14">
-        <v>0.3317524553738664</v>
+        <v>0.1451125479391706</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4799438999516781</v>
+        <v>0.3289130001386837</v>
       </c>
       <c r="H14">
-        <v>0.2718447627073601</v>
+        <v>0.4542136838297921</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.619834054190534</v>
+        <v>0.5231857844210026</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.539875546313596</v>
+        <v>1.497522286862932</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.018760873205451</v>
+        <v>1.28962589476896</v>
       </c>
       <c r="C15">
-        <v>0.925862767069475</v>
+        <v>0.3185266179777386</v>
       </c>
       <c r="D15">
-        <v>0.3378930048562978</v>
+        <v>0.1154902245917242</v>
       </c>
       <c r="E15">
-        <v>0.3276598634852377</v>
+        <v>0.1443375317108533</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.474603958593903</v>
+        <v>0.3282769361128288</v>
       </c>
       <c r="H15">
-        <v>0.2702135077856411</v>
+        <v>0.4544267155320085</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.601268305327622</v>
+        <v>0.5179799576082758</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.525088269404336</v>
+        <v>1.496585824193005</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.764939229219181</v>
+        <v>1.211410677173376</v>
       </c>
       <c r="C16">
-        <v>0.8724614111083042</v>
+        <v>0.3012925425214519</v>
       </c>
       <c r="D16">
-        <v>0.315323801636481</v>
+        <v>0.1094739747558862</v>
       </c>
       <c r="E16">
-        <v>0.3045751655931852</v>
+        <v>0.139940508031323</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4446886494880857</v>
+        <v>0.3247552660016169</v>
       </c>
       <c r="H16">
-        <v>0.2612294982831429</v>
+        <v>0.4557520029130018</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.49537017851948</v>
+        <v>0.4881584399111176</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.442561156576545</v>
+        <v>1.491696292780091</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.609678706953105</v>
+        <v>1.163374462217064</v>
       </c>
       <c r="C17">
-        <v>0.8397782780721741</v>
+        <v>0.2907004718728956</v>
       </c>
       <c r="D17">
-        <v>0.3015852578069911</v>
+        <v>0.1057930507467404</v>
       </c>
       <c r="E17">
-        <v>0.2907228091060787</v>
+        <v>0.1372823022252447</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4269184019355237</v>
+        <v>0.3227044634159313</v>
       </c>
       <c r="H17">
-        <v>0.2560293646734806</v>
+        <v>0.4566581264544851</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.430814845223509</v>
+        <v>0.4698737629306038</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.393815746473223</v>
+        <v>1.489121091760012</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.520525833032593</v>
+        <v>1.135726025877204</v>
       </c>
       <c r="C18">
-        <v>0.8210049082308331</v>
+        <v>0.2846011403093485</v>
       </c>
       <c r="D18">
-        <v>0.2937198438182804</v>
+        <v>0.1036794970919885</v>
       </c>
       <c r="E18">
-        <v>0.2828616244763538</v>
+        <v>0.1357676742720031</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4168997021164671</v>
+        <v>0.3215650074361065</v>
       </c>
       <c r="H18">
-        <v>0.253147559786072</v>
+        <v>0.4572134662493141</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.393822780594846</v>
+        <v>0.4593605508830336</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.366435018357009</v>
+        <v>1.487795369952408</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.49036422831648</v>
+        <v>1.126361473847567</v>
       </c>
       <c r="C19">
-        <v>0.8146525912109155</v>
+        <v>0.2825348117858937</v>
       </c>
       <c r="D19">
-        <v>0.2910627963170498</v>
+        <v>0.1029645049370487</v>
       </c>
       <c r="E19">
-        <v>0.2802175500279844</v>
+        <v>0.1352572928389222</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4135412226470265</v>
+        <v>0.3211860796381529</v>
       </c>
       <c r="H19">
-        <v>0.2521901016858408</v>
+        <v>0.4574073569666837</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.381320571980851</v>
+        <v>0.4558015875814618</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.357273847967235</v>
+        <v>1.487373158373344</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.626190677066575</v>
+        <v>1.168490004776402</v>
       </c>
       <c r="C20">
-        <v>0.8432547860961108</v>
+        <v>0.2918287485663882</v>
       </c>
       <c r="D20">
-        <v>0.3030438991169149</v>
+        <v>0.1061845170202673</v>
       </c>
       <c r="E20">
-        <v>0.2921862502610324</v>
+        <v>0.1375637900377455</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4287888859722102</v>
+        <v>0.322918619486444</v>
       </c>
       <c r="H20">
-        <v>0.2565715137626796</v>
+        <v>0.4565581312631366</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.437672274540333</v>
+        <v>0.471819820828415</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.398936069820991</v>
+        <v>1.489379125166721</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.084446206951611</v>
+        <v>1.309802545028276</v>
       </c>
       <c r="C21">
-        <v>0.9396763727011717</v>
+        <v>0.3229699825141665</v>
       </c>
       <c r="D21">
-        <v>0.3437552307271403</v>
+        <v>0.1170465502310947</v>
       </c>
       <c r="E21">
-        <v>0.3337217593247459</v>
+        <v>0.1454849766199828</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4825171122660521</v>
+        <v>0.3292201984404102</v>
       </c>
       <c r="H21">
-        <v>0.2726336302380332</v>
+        <v>0.4541133795610079</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.628746045124117</v>
+        <v>0.5256823129686126</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.547006924684297</v>
+        <v>1.497979800466652</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.385637204797092</v>
+        <v>1.401977012027203</v>
       </c>
       <c r="C22">
-        <v>1.002986117603342</v>
+        <v>0.3432571927738479</v>
       </c>
       <c r="D22">
-        <v>0.3707469349858599</v>
+        <v>0.1241777950829572</v>
       </c>
       <c r="E22">
-        <v>0.3619765398084951</v>
+        <v>0.1507917018639162</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.519685790826756</v>
+        <v>0.3336995772824878</v>
       </c>
       <c r="H22">
-        <v>0.2842176157342493</v>
+        <v>0.4528209316045633</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.755123085397713</v>
+        <v>0.5609164957366914</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.650400111664339</v>
+        <v>1.504995603996122</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.2247120028984</v>
+        <v>1.352798837487285</v>
       </c>
       <c r="C23">
-        <v>0.9691661962011153</v>
+        <v>0.3324356337388963</v>
       </c>
       <c r="D23">
-        <v>0.3563028082296</v>
+        <v>0.1203687585090591</v>
       </c>
       <c r="E23">
-        <v>0.3467866324366398</v>
+        <v>0.1479474113678378</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4996473100318752</v>
+        <v>0.331275642155461</v>
       </c>
       <c r="H23">
-        <v>0.2779297834094763</v>
+        <v>0.4534827420036862</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.687522450169027</v>
+        <v>0.5421084546879342</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.594571897596808</v>
+        <v>1.501123015704081</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.618725281481773</v>
+        <v>1.166177366861518</v>
       </c>
       <c r="C24">
-        <v>0.8416830058582434</v>
+        <v>0.2913186852012757</v>
       </c>
       <c r="D24">
-        <v>0.3023843450402239</v>
+        <v>0.1060075268395479</v>
       </c>
       <c r="E24">
-        <v>0.2915243103005665</v>
+        <v>0.1374364870327298</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4279426272159412</v>
+        <v>0.3228216762859546</v>
       </c>
       <c r="H24">
-        <v>0.2563260735490758</v>
+        <v>0.4566032319531104</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.434571654668531</v>
+        <v>0.4709400115033731</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.396619175125352</v>
+        <v>1.489261986193412</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.970584390404611</v>
+        <v>0.964144183977794</v>
       </c>
       <c r="C25">
-        <v>0.7050985189449932</v>
+        <v>0.246699184481173</v>
       </c>
       <c r="D25">
-        <v>0.2455965212069628</v>
+        <v>0.09065477099750296</v>
       </c>
       <c r="E25">
-        <v>0.2359041588600945</v>
+        <v>0.1266440585526354</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3582087458392209</v>
+        <v>0.3152339408642746</v>
       </c>
       <c r="H25">
-        <v>0.237141790404749</v>
+        <v>0.4612745609518925</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.166890007551238</v>
+        <v>0.3943129858034808</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.207813766411903</v>
+        <v>1.482405357270522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8147768276045895</v>
+        <v>2.49625020917199</v>
       </c>
       <c r="C2">
-        <v>0.2136217747381863</v>
+        <v>0.6049813738353294</v>
       </c>
       <c r="D2">
-        <v>0.07946615628169695</v>
+        <v>0.2046749189302943</v>
       </c>
       <c r="E2">
-        <v>0.1191513367428243</v>
+        <v>0.1976157808724892</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.310941360334084</v>
+        <v>0.3121935328166501</v>
       </c>
       <c r="H2">
-        <v>0.4658305808968066</v>
+        <v>0.2260112679957871</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3380024614860631</v>
+        <v>0.9729424625340144</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.482401996685581</v>
+        <v>1.086329860234571</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7131801136489457</v>
+        <v>2.175772927821072</v>
       </c>
       <c r="C3">
-        <v>0.1910689596984696</v>
+        <v>0.5372590269326452</v>
       </c>
       <c r="D3">
-        <v>0.0719541466638276</v>
+        <v>0.1773678780031815</v>
       </c>
       <c r="E3">
-        <v>0.1143489186497888</v>
+        <v>0.1729924682417661</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.308828250439781</v>
+        <v>0.2837881784448442</v>
       </c>
       <c r="H3">
-        <v>0.4696116846105838</v>
+        <v>0.2200909629412635</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2999044575238798</v>
+        <v>0.8428908660975836</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.485516303262898</v>
+        <v>1.013266759220841</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6506230520072052</v>
+        <v>1.979242483555055</v>
       </c>
       <c r="C4">
-        <v>0.1771560867453843</v>
+        <v>0.4956959420011913</v>
       </c>
       <c r="D4">
-        <v>0.06737620766929808</v>
+        <v>0.1607721541057145</v>
       </c>
       <c r="E4">
-        <v>0.1115336791581427</v>
+        <v>0.1584269527096183</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3079197556072728</v>
+        <v>0.2675534566303455</v>
       </c>
       <c r="H4">
-        <v>0.4722743592603038</v>
+        <v>0.2171822737935116</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2765429980186482</v>
+        <v>0.7635532671874898</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.488955868022387</v>
+        <v>0.9724723940043987</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6250875958371012</v>
+        <v>1.89918417169784</v>
       </c>
       <c r="C5">
-        <v>0.17147041271636</v>
+        <v>0.4787575615864057</v>
       </c>
       <c r="D5">
-        <v>0.06551931194559302</v>
+        <v>0.154046873959345</v>
       </c>
       <c r="E5">
-        <v>0.1104196809051956</v>
+        <v>0.1526167374446104</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3076468350770156</v>
+        <v>0.2612180958036205</v>
       </c>
       <c r="H5">
-        <v>0.473445046195728</v>
+        <v>0.2161692982654486</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2670308561785646</v>
+        <v>0.7313289313616096</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.490740212568824</v>
+        <v>0.9568007610130849</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6208448999108782</v>
+        <v>1.88589143880634</v>
       </c>
       <c r="C6">
-        <v>0.1705253515035565</v>
+        <v>0.4759447302226647</v>
       </c>
       <c r="D6">
-        <v>0.0652114979318128</v>
+        <v>0.1529322668302342</v>
       </c>
       <c r="E6">
-        <v>0.1102367001066895</v>
+        <v>0.1516591405506347</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3076073784722055</v>
+        <v>0.2601824050726691</v>
       </c>
       <c r="H6">
-        <v>0.4736446054088361</v>
+        <v>0.2160112125016198</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2654518484542194</v>
+        <v>0.7259838857220728</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.491059575061428</v>
+        <v>0.9542540429844024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6502788439597964</v>
+        <v>1.978162710488078</v>
       </c>
       <c r="C7">
-        <v>0.1770794723125277</v>
+        <v>0.4954675168025346</v>
       </c>
       <c r="D7">
-        <v>0.06735112991303538</v>
+        <v>0.1606813092095507</v>
       </c>
       <c r="E7">
-        <v>0.1115185212530605</v>
+        <v>0.1583481041369907</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3079156816245288</v>
+        <v>0.2674669096735443</v>
       </c>
       <c r="H7">
-        <v>0.4722898010438215</v>
+        <v>0.2171679278745273</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2764146820809188</v>
+        <v>0.763118277129692</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.488978384634066</v>
+        <v>0.9722572745524474</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7797836566487035</v>
+        <v>2.385679027632875</v>
       </c>
       <c r="C8">
-        <v>0.2058593410120295</v>
+        <v>0.5816231785558728</v>
       </c>
       <c r="D8">
-        <v>0.0768688507047699</v>
+        <v>0.1952206485441508</v>
       </c>
       <c r="E8">
-        <v>0.1174675644107452</v>
+        <v>0.1890022395117086</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3101317229486824</v>
+        <v>0.302134801742568</v>
       </c>
       <c r="H8">
-        <v>0.4670634351289493</v>
+        <v>0.2238127843903754</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3248598979788184</v>
+        <v>0.9279794941071842</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.483157973627584</v>
+        <v>1.060250150370251</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.032295798945086</v>
+        <v>3.188346526399926</v>
       </c>
       <c r="C9">
-        <v>0.2617646604939523</v>
+        <v>0.7510156612512731</v>
       </c>
       <c r="D9">
-        <v>0.09580821940433282</v>
+        <v>0.2645688842149383</v>
       </c>
       <c r="E9">
-        <v>0.1302080186562691</v>
+        <v>0.254177983711152</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3175873270954099</v>
+        <v>0.3807939169006573</v>
       </c>
       <c r="H9">
-        <v>0.4595271652074189</v>
+        <v>0.2431042245126349</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4201072830179697</v>
+        <v>1.256488903049245</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.483927238769212</v>
+        <v>1.268454058778048</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.216889297979321</v>
+        <v>3.782676907792279</v>
       </c>
       <c r="C10">
-        <v>0.3025002069578591</v>
+        <v>0.8761944100612311</v>
       </c>
       <c r="D10">
-        <v>0.1098944840981062</v>
+        <v>0.3168966194241847</v>
       </c>
       <c r="E10">
-        <v>0.140245773966825</v>
+        <v>0.3061707481446803</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3249947248658458</v>
+        <v>0.446744592145464</v>
       </c>
       <c r="H10">
-        <v>0.4556532407754332</v>
+        <v>0.2618380357224623</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.49024534142292</v>
+        <v>1.502756017341056</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.492011242619725</v>
+        <v>1.448214812412317</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.30065611261108</v>
+        <v>4.054659153677676</v>
       </c>
       <c r="C11">
-        <v>0.320955844831218</v>
+        <v>0.9334124626818721</v>
       </c>
       <c r="D11">
-        <v>0.116340825441597</v>
+        <v>0.341095732360742</v>
       </c>
       <c r="E11">
-        <v>0.1449641689515673</v>
+        <v>0.3309683457518204</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3287908866217464</v>
+        <v>0.4789199997018443</v>
       </c>
       <c r="H11">
-        <v>0.4542540172824374</v>
+        <v>0.2715313690012522</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.522190228723602</v>
+        <v>1.616281709301219</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.497341357359858</v>
+        <v>1.537038938447523</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.332345770163272</v>
+        <v>4.157938799658666</v>
       </c>
       <c r="C12">
-        <v>0.3279334060695476</v>
+        <v>0.9551289956076232</v>
       </c>
       <c r="D12">
-        <v>0.1187874519214915</v>
+        <v>0.3503246183934863</v>
       </c>
       <c r="E12">
-        <v>0.1467731584642422</v>
+        <v>0.3405467524064463</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3302902898558386</v>
+        <v>0.4914532405149714</v>
       </c>
       <c r="H12">
-        <v>0.4537765332737536</v>
+        <v>0.2753869254768802</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5342925485855545</v>
+        <v>1.659525129824786</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.49959892564803</v>
+        <v>1.571800362293459</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.32552223762508</v>
+        <v>4.135682067344362</v>
       </c>
       <c r="C13">
-        <v>0.3264311670004076</v>
+        <v>0.9504495904698729</v>
       </c>
       <c r="D13">
-        <v>0.1182602807069344</v>
+        <v>0.3483339711223294</v>
       </c>
       <c r="E13">
-        <v>0.1463825656186231</v>
+        <v>0.3384751090017133</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3299646057245695</v>
+        <v>0.4887378409883496</v>
       </c>
       <c r="H13">
-        <v>0.4538770361127575</v>
+        <v>0.2745480609443263</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5316858548596315</v>
+        <v>1.650199951933786</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.499102056651111</v>
+        <v>1.564261917728459</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.30326386961832</v>
+        <v>4.063149981266406</v>
       </c>
       <c r="C14">
-        <v>0.3215301193792186</v>
+        <v>0.9351980465147278</v>
       </c>
       <c r="D14">
-        <v>0.1165419998455093</v>
+        <v>0.3418536408512551</v>
       </c>
       <c r="E14">
-        <v>0.1451125479391706</v>
+        <v>0.3317524553738735</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3289130001386837</v>
+        <v>0.4799438999517065</v>
       </c>
       <c r="H14">
-        <v>0.4542136838297921</v>
+        <v>0.2718447627073601</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5231857844210026</v>
+        <v>1.619834054190548</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.497522286862932</v>
+        <v>1.539875546313567</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.28962589476896</v>
+        <v>4.018760873205565</v>
       </c>
       <c r="C15">
-        <v>0.3185266179777386</v>
+        <v>0.9258627670689918</v>
       </c>
       <c r="D15">
-        <v>0.1154902245917242</v>
+        <v>0.3378930048561699</v>
       </c>
       <c r="E15">
-        <v>0.1443375317108533</v>
+        <v>0.3276598634852306</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3282769361128288</v>
+        <v>0.4746039585938888</v>
       </c>
       <c r="H15">
-        <v>0.4544267155320085</v>
+        <v>0.2702135077856411</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5179799576082758</v>
+        <v>1.601268305327622</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.496585824193005</v>
+        <v>1.525088269404336</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.211410677173376</v>
+        <v>3.764939229219181</v>
       </c>
       <c r="C16">
-        <v>0.3012925425214519</v>
+        <v>0.8724614111083326</v>
       </c>
       <c r="D16">
-        <v>0.1094739747558862</v>
+        <v>0.3153238016363105</v>
       </c>
       <c r="E16">
-        <v>0.139940508031323</v>
+        <v>0.3045751655932065</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3247552660016169</v>
+        <v>0.4446886494880715</v>
       </c>
       <c r="H16">
-        <v>0.4557520029130018</v>
+        <v>0.2612294982831571</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4881584399111176</v>
+        <v>1.49537017851948</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.491696292780091</v>
+        <v>1.44256115657663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.163374462217064</v>
+        <v>3.609678706953332</v>
       </c>
       <c r="C17">
-        <v>0.2907004718728956</v>
+        <v>0.8397782780722594</v>
       </c>
       <c r="D17">
-        <v>0.1057930507467404</v>
+        <v>0.3015852578069484</v>
       </c>
       <c r="E17">
-        <v>0.1372823022252447</v>
+        <v>0.2907228091060787</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3227044634159313</v>
+        <v>0.4269184019354952</v>
       </c>
       <c r="H17">
-        <v>0.4566581264544851</v>
+        <v>0.2560293646733669</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4698737629306038</v>
+        <v>1.430814845223495</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.489121091760012</v>
+        <v>1.393815746473194</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.135726025877204</v>
+        <v>3.520525833032764</v>
       </c>
       <c r="C18">
-        <v>0.2846011403093485</v>
+        <v>0.8210049082306909</v>
       </c>
       <c r="D18">
-        <v>0.1036794970919885</v>
+        <v>0.2937198438182236</v>
       </c>
       <c r="E18">
-        <v>0.1357676742720031</v>
+        <v>0.2828616244763893</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3215650074361065</v>
+        <v>0.4168997021164387</v>
       </c>
       <c r="H18">
-        <v>0.4572134662493141</v>
+        <v>0.253147559786072</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4593605508830336</v>
+        <v>1.393822780594846</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.487795369952408</v>
+        <v>1.366435018357009</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.126361473847567</v>
+        <v>3.490364228316537</v>
       </c>
       <c r="C19">
-        <v>0.2825348117858937</v>
+        <v>0.8146525912111997</v>
       </c>
       <c r="D19">
-        <v>0.1029645049370487</v>
+        <v>0.2910627963169787</v>
       </c>
       <c r="E19">
-        <v>0.1352572928389222</v>
+        <v>0.2802175500279702</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3211860796381529</v>
+        <v>0.4135412226470834</v>
       </c>
       <c r="H19">
-        <v>0.4574073569666837</v>
+        <v>0.2521901016858408</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4558015875814618</v>
+        <v>1.381320571980822</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.487373158373344</v>
+        <v>1.357273847967235</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.168490004776402</v>
+        <v>3.626190677066518</v>
       </c>
       <c r="C20">
-        <v>0.2918287485663882</v>
+        <v>0.8432547860961108</v>
       </c>
       <c r="D20">
-        <v>0.1061845170202673</v>
+        <v>0.3030438991170854</v>
       </c>
       <c r="E20">
-        <v>0.1375637900377455</v>
+        <v>0.2921862502610253</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.322918619486444</v>
+        <v>0.4287888859722386</v>
       </c>
       <c r="H20">
-        <v>0.4565581312631366</v>
+        <v>0.2565715137627222</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.471819820828415</v>
+        <v>1.437672274540333</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.489379125166721</v>
+        <v>1.398936069820991</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.309802545028276</v>
+        <v>4.084446206951611</v>
       </c>
       <c r="C21">
-        <v>0.3229699825141665</v>
+        <v>0.9396763727014559</v>
       </c>
       <c r="D21">
-        <v>0.1170465502310947</v>
+        <v>0.343755230727254</v>
       </c>
       <c r="E21">
-        <v>0.1454849766199828</v>
+        <v>0.3337217593248099</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.3292201984404102</v>
+        <v>0.4825171122660947</v>
       </c>
       <c r="H21">
-        <v>0.4541133795610079</v>
+        <v>0.2726336302379337</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5256823129686126</v>
+        <v>1.628746045124089</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.497979800466652</v>
+        <v>1.547006924684268</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.401977012027203</v>
+        <v>4.385637204796922</v>
       </c>
       <c r="C22">
-        <v>0.3432571927738479</v>
+        <v>1.002986117603768</v>
       </c>
       <c r="D22">
-        <v>0.1241777950829572</v>
+        <v>0.3707469349857178</v>
       </c>
       <c r="E22">
-        <v>0.1507917018639162</v>
+        <v>0.3619765398084667</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.3336995772824878</v>
+        <v>0.5196857908268271</v>
       </c>
       <c r="H22">
-        <v>0.4528209316045633</v>
+        <v>0.2842176157342635</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5609164957366914</v>
+        <v>1.755123085397713</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.504995603996122</v>
+        <v>1.650400111664368</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.352798837487285</v>
+        <v>4.224712002898457</v>
       </c>
       <c r="C23">
-        <v>0.3324356337388963</v>
+        <v>0.9691661962010301</v>
       </c>
       <c r="D23">
-        <v>0.1203687585090591</v>
+        <v>0.3563028082294863</v>
       </c>
       <c r="E23">
-        <v>0.1479474113678378</v>
+        <v>0.3467866324366398</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.331275642155461</v>
+        <v>0.4996473100318184</v>
       </c>
       <c r="H23">
-        <v>0.4534827420036862</v>
+        <v>0.2779297834093626</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5421084546879342</v>
+        <v>1.687522450169013</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.501123015704081</v>
+        <v>1.594571897596808</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.166177366861518</v>
+        <v>3.618725281481829</v>
       </c>
       <c r="C24">
-        <v>0.2913186852012757</v>
+        <v>0.8416830058581866</v>
       </c>
       <c r="D24">
-        <v>0.1060075268395479</v>
+        <v>0.3023843450403518</v>
       </c>
       <c r="E24">
-        <v>0.1374364870327298</v>
+        <v>0.2915243103005665</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3228216762859546</v>
+        <v>0.4279426272159128</v>
       </c>
       <c r="H24">
-        <v>0.4566032319531104</v>
+        <v>0.2563260735490758</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4709400115033731</v>
+        <v>1.434571654668545</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.489261986193412</v>
+        <v>1.39661917512538</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.964144183977794</v>
+        <v>2.970584390404667</v>
       </c>
       <c r="C25">
-        <v>0.246699184481173</v>
+        <v>0.7050985189448511</v>
       </c>
       <c r="D25">
-        <v>0.09065477099750296</v>
+        <v>0.2455965212069486</v>
       </c>
       <c r="E25">
-        <v>0.1266440585526354</v>
+        <v>0.2359041588600803</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3152339408642746</v>
+        <v>0.3582087458393062</v>
       </c>
       <c r="H25">
-        <v>0.4612745609518925</v>
+        <v>0.2371417904046353</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3943129858034808</v>
+        <v>1.166890007551231</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.482405357270522</v>
+        <v>1.207813766411959</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.49625020917199</v>
+        <v>2.857242931777989</v>
       </c>
       <c r="C2">
-        <v>0.6049813738353294</v>
+        <v>0.5590308753695297</v>
       </c>
       <c r="D2">
-        <v>0.2046749189302943</v>
+        <v>0.1875651830399789</v>
       </c>
       <c r="E2">
-        <v>0.1976157808724892</v>
+        <v>0.03612865170289092</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3121935328166501</v>
+        <v>1.587365302086397</v>
       </c>
       <c r="H2">
-        <v>0.2260112679957871</v>
+        <v>0.01433208483158499</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01082288597045133</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.996360668986739</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9305807597267517</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04872190077355754</v>
       </c>
       <c r="M2">
-        <v>0.9729424625340144</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3025213051310374</v>
       </c>
       <c r="O2">
-        <v>1.086329860234571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5559679982439008</v>
+      </c>
+      <c r="P2">
+        <v>1.115511392546413</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.175772927821072</v>
+        <v>2.501038283205332</v>
       </c>
       <c r="C3">
-        <v>0.5372590269326452</v>
+        <v>0.4843186592161999</v>
       </c>
       <c r="D3">
-        <v>0.1773678780031815</v>
+        <v>0.1761427729208833</v>
       </c>
       <c r="E3">
-        <v>0.1729924682417661</v>
+        <v>0.03420081357120308</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2837881784448442</v>
+        <v>1.473147757662161</v>
       </c>
       <c r="H3">
-        <v>0.2200909629412635</v>
+        <v>0.01911283843325906</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0149437361301783</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.9472280963905746</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8901119211537463</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0419066959250749</v>
       </c>
       <c r="M3">
-        <v>0.8428908660975836</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2724655369032263</v>
       </c>
       <c r="O3">
-        <v>1.013266759220841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4896855748859821</v>
+      </c>
+      <c r="P3">
+        <v>1.150608197265813</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.979242483555055</v>
+        <v>2.282265268324011</v>
       </c>
       <c r="C4">
-        <v>0.4956959420011913</v>
+        <v>0.4389047513442961</v>
       </c>
       <c r="D4">
-        <v>0.1607721541057145</v>
+        <v>0.1692010675054334</v>
       </c>
       <c r="E4">
-        <v>0.1584269527096183</v>
+        <v>0.03300924557856355</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2675534566303455</v>
+        <v>1.40380691596414</v>
       </c>
       <c r="H4">
-        <v>0.2171822737935116</v>
+        <v>0.02250105314078865</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01794491396752207</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.9175497857578847</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8655596966930617</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.03780276960149109</v>
       </c>
       <c r="M4">
-        <v>0.7635532671874898</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2541103658741548</v>
       </c>
       <c r="O4">
-        <v>0.9724723940043987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4490430287483989</v>
+      </c>
+      <c r="P4">
+        <v>1.172598388059935</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.89918417169784</v>
+        <v>2.191447952651231</v>
       </c>
       <c r="C5">
-        <v>0.4787575615864057</v>
+        <v>0.4208965410361714</v>
       </c>
       <c r="D5">
-        <v>0.154046873959345</v>
+        <v>0.1663632187922914</v>
       </c>
       <c r="E5">
-        <v>0.1526167374446104</v>
+        <v>0.03251369838873552</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2612180958036205</v>
+        <v>1.374262715356153</v>
       </c>
       <c r="H5">
-        <v>0.2161692982654486</v>
+        <v>0.02400106449228168</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01937648837020101</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9048295876018528</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8546892817732683</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0361572822691123</v>
       </c>
       <c r="M5">
-        <v>0.7313289313616096</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2467457851533226</v>
       </c>
       <c r="O5">
-        <v>0.9568007610130849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4323164634050656</v>
+      </c>
+      <c r="P5">
+        <v>1.181273259978983</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.88589143880634</v>
+        <v>2.174374610508607</v>
       </c>
       <c r="C6">
-        <v>0.4759447302226647</v>
+        <v>0.4183979702661134</v>
       </c>
       <c r="D6">
-        <v>0.1529322668302342</v>
+        <v>0.1658616297214408</v>
       </c>
       <c r="E6">
-        <v>0.1516591405506347</v>
+        <v>0.03242236309653035</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2601824050726691</v>
+        <v>1.367576332795721</v>
       </c>
       <c r="H6">
-        <v>0.2160112125016198</v>
+        <v>0.02426915334556079</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01974474297779238</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.9018198880005741</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8517492154591437</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03589661983031078</v>
       </c>
       <c r="M6">
-        <v>0.7259838857220728</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2456391925540231</v>
       </c>
       <c r="O6">
-        <v>0.9542540429844024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4293276161712285</v>
+      </c>
+      <c r="P6">
+        <v>1.182242074636225</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.978162710488078</v>
+        <v>2.275583776835163</v>
       </c>
       <c r="C7">
-        <v>0.4954675168025346</v>
+        <v>0.4399913076772748</v>
       </c>
       <c r="D7">
-        <v>0.1606813092095507</v>
+        <v>0.1690773285585223</v>
       </c>
       <c r="E7">
-        <v>0.1583481041369907</v>
+        <v>0.03297843441413173</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2674669096735443</v>
+        <v>1.398510581397048</v>
       </c>
       <c r="H7">
-        <v>0.2171679278745273</v>
+        <v>0.02255332241786612</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01828273467928554</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.9149071751345019</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8623002299761779</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.03781200535958362</v>
       </c>
       <c r="M7">
-        <v>0.763118277129692</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2543262664188006</v>
       </c>
       <c r="O7">
-        <v>0.9722572745524474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4482367804252974</v>
+      </c>
+      <c r="P7">
+        <v>1.171426404653921</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.385679027632875</v>
+        <v>2.727110106102543</v>
       </c>
       <c r="C8">
-        <v>0.5816231785558728</v>
+        <v>0.5349385420693409</v>
       </c>
       <c r="D8">
-        <v>0.1952206485441508</v>
+        <v>0.1834985008295007</v>
       </c>
       <c r="E8">
-        <v>0.1890022395117086</v>
+        <v>0.03543343000766397</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.302134801742568</v>
+        <v>1.541302046643636</v>
       </c>
       <c r="H8">
-        <v>0.2238127843903754</v>
+        <v>0.01591819880743678</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01251776438150642</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.9760385577251043</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9124368741366879</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04639433517575497</v>
       </c>
       <c r="M8">
-        <v>0.9279794941071842</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2925568961505007</v>
       </c>
       <c r="O8">
-        <v>1.060250150370251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5323209922845322</v>
+      </c>
+      <c r="P8">
+        <v>1.125893811082857</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.188346526399926</v>
+        <v>3.623182621458625</v>
       </c>
       <c r="C9">
-        <v>0.7510156612512731</v>
+        <v>0.7230474525876218</v>
       </c>
       <c r="D9">
-        <v>0.2645688842149383</v>
+        <v>0.2125704631447292</v>
       </c>
       <c r="E9">
-        <v>0.254177983711152</v>
+        <v>0.0402633842352409</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3807939169006573</v>
+        <v>1.837427923095703</v>
       </c>
       <c r="H9">
-        <v>0.2431042245126349</v>
+        <v>0.006688134905705356</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004729397310260453</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.104705786654705</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.019067690955872</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06394569324483612</v>
       </c>
       <c r="M9">
-        <v>1.256488903049245</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3679154718354738</v>
       </c>
       <c r="O9">
-        <v>1.268454058778048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.698963657535316</v>
+      </c>
+      <c r="P9">
+        <v>1.04245260686033</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.782676907792279</v>
+        <v>4.258805124229866</v>
       </c>
       <c r="C10">
-        <v>0.8761944100612311</v>
+        <v>0.8645729730286291</v>
       </c>
       <c r="D10">
-        <v>0.3168966194241847</v>
+        <v>0.2310757627434441</v>
       </c>
       <c r="E10">
-        <v>0.3061707481446803</v>
+        <v>0.04340853203402517</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.446744592145464</v>
+        <v>2.033134773178631</v>
       </c>
       <c r="H10">
-        <v>0.2618380357224623</v>
+        <v>0.002909968674261965</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001996070541034456</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.188721700041498</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.084260610973885</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07987516855524035</v>
       </c>
       <c r="M10">
-        <v>1.502756017341056</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4131963725896952</v>
       </c>
       <c r="O10">
-        <v>1.448214812412317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8125546660879763</v>
+      </c>
+      <c r="P10">
+        <v>0.9783760441092184</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.054659153677676</v>
+        <v>4.344752294172622</v>
       </c>
       <c r="C11">
-        <v>0.9334124626818721</v>
+        <v>0.9233943037522465</v>
       </c>
       <c r="D11">
-        <v>0.341095732360742</v>
+        <v>0.211408148211774</v>
       </c>
       <c r="E11">
-        <v>0.3309683457518204</v>
+        <v>0.04297347783760963</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4789199997018443</v>
+        <v>1.898064528824648</v>
       </c>
       <c r="H11">
-        <v>0.2715313690012522</v>
+        <v>0.02116940293032599</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002107788554794432</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.115267445356807</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9920694579423142</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1111317777579188</v>
       </c>
       <c r="M11">
-        <v>1.616281709301219</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3429190161665048</v>
       </c>
       <c r="O11">
-        <v>1.537038938447523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7825453789198065</v>
+      </c>
+      <c r="P11">
+        <v>0.9166744119920072</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.157938799658666</v>
+        <v>4.288788048789172</v>
       </c>
       <c r="C12">
-        <v>0.9551289956076232</v>
+        <v>0.9404708181161539</v>
       </c>
       <c r="D12">
-        <v>0.3503246183934863</v>
+        <v>0.191836040274552</v>
       </c>
       <c r="E12">
-        <v>0.3405467524064463</v>
+        <v>0.04448253215021225</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4914532405149714</v>
+        <v>1.753143705521751</v>
       </c>
       <c r="H12">
-        <v>0.2753869254768802</v>
+        <v>0.05997902962754154</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002081031482961571</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.040494264046913</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9082043480448903</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1386822267583483</v>
       </c>
       <c r="M12">
-        <v>1.659525129824786</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2799142580287679</v>
       </c>
       <c r="O12">
-        <v>1.571800362293459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7345140867142135</v>
+      </c>
+      <c r="P12">
+        <v>0.8909264573746527</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.135682067344362</v>
+        <v>4.111981121144879</v>
       </c>
       <c r="C13">
-        <v>0.9504495904698729</v>
+        <v>0.9282115645226838</v>
       </c>
       <c r="D13">
-        <v>0.3483339711223294</v>
+        <v>0.171175647813925</v>
       </c>
       <c r="E13">
-        <v>0.3384751090017133</v>
+        <v>0.04745483341221401</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4887378409883496</v>
+        <v>1.584866303670168</v>
       </c>
       <c r="H13">
-        <v>0.2745480609443263</v>
+        <v>0.1162722809503265</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002318618168847486</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.9565987849498185</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8211644721534768</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1646214974871256</v>
       </c>
       <c r="M13">
-        <v>1.650199951933786</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2198003563724953</v>
       </c>
       <c r="O13">
-        <v>1.564261917728459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6693110381616165</v>
+      </c>
+      <c r="P13">
+        <v>0.8884739649290552</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.063149981266406</v>
+        <v>3.932863251673325</v>
       </c>
       <c r="C14">
-        <v>0.9351980465147278</v>
+        <v>0.9068428747705752</v>
       </c>
       <c r="D14">
-        <v>0.3418536408512551</v>
+        <v>0.1564593529517424</v>
       </c>
       <c r="E14">
-        <v>0.3317524553738735</v>
+        <v>0.0504850139616817</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4799438999517065</v>
+        <v>1.456828839268269</v>
       </c>
       <c r="H14">
-        <v>0.2718447627073601</v>
+        <v>0.1662183019856514</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002754715984648826</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.893840212109609</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7589871951603442</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1824475468156663</v>
       </c>
       <c r="M14">
-        <v>1.619834054190548</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1803887223803997</v>
       </c>
       <c r="O14">
-        <v>1.539875546313567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6163159641392895</v>
+      </c>
+      <c r="P14">
+        <v>0.8983520396927851</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.018760873205565</v>
+        <v>3.862090958328054</v>
       </c>
       <c r="C15">
-        <v>0.9258627670689918</v>
+        <v>0.8960110498292124</v>
       </c>
       <c r="D15">
-        <v>0.3378930048561699</v>
+        <v>0.1525489052994473</v>
       </c>
       <c r="E15">
-        <v>0.3276598634852306</v>
+        <v>0.05119601804253193</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4746039585938888</v>
+        <v>1.418994003790971</v>
       </c>
       <c r="H15">
-        <v>0.2702135077856411</v>
+        <v>0.1790209796685218</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003080120379293838</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.8757900333028772</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7419826936899696</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1858051155401981</v>
       </c>
       <c r="M15">
-        <v>1.601268305327622</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.170752627846575</v>
       </c>
       <c r="O15">
-        <v>1.525088269404336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5996342369515091</v>
+      </c>
+      <c r="P15">
+        <v>0.904239625695773</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.764939229219181</v>
+        <v>3.625301341152522</v>
       </c>
       <c r="C16">
-        <v>0.8724614111083326</v>
+        <v>0.8379706165187883</v>
       </c>
       <c r="D16">
-        <v>0.3153238016363105</v>
+        <v>0.1492312314447943</v>
       </c>
       <c r="E16">
-        <v>0.3045751655932065</v>
+        <v>0.04908247812763022</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4446886494880715</v>
+        <v>1.36896699789574</v>
       </c>
       <c r="H16">
-        <v>0.2612294982831571</v>
+        <v>0.1678442134730176</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004252958975105692</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.8564033008010483</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7312257260653396</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1726501543712118</v>
       </c>
       <c r="M16">
-        <v>1.49537017851948</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1655210749588178</v>
       </c>
       <c r="O16">
-        <v>1.44256115657663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5655772717473937</v>
+      </c>
+      <c r="P16">
+        <v>0.9290755754509945</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.609678706953332</v>
+        <v>3.538331912122203</v>
       </c>
       <c r="C17">
-        <v>0.8397782780722594</v>
+        <v>0.8050532780434025</v>
       </c>
       <c r="D17">
-        <v>0.3015852578069484</v>
+        <v>0.154340907359888</v>
       </c>
       <c r="E17">
-        <v>0.2907228091060787</v>
+        <v>0.0456630644119187</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4269184019354952</v>
+        <v>1.397708107167063</v>
       </c>
       <c r="H17">
-        <v>0.2560293646733669</v>
+        <v>0.1309904612180048</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00497755340381989</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.8744978776559549</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7553945945566696</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1529080496371122</v>
       </c>
       <c r="M17">
-        <v>1.430814845223495</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1815528131231261</v>
       </c>
       <c r="O17">
-        <v>1.393815746473194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5672089128833093</v>
+      </c>
+      <c r="P17">
+        <v>0.94245385108864</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.520525833032764</v>
+        <v>3.573748494266908</v>
       </c>
       <c r="C18">
-        <v>0.8210049082306909</v>
+        <v>0.7884477332199822</v>
       </c>
       <c r="D18">
-        <v>0.2937198438182236</v>
+        <v>0.1678316438591736</v>
       </c>
       <c r="E18">
-        <v>0.2828616244763893</v>
+        <v>0.04191662676073271</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4168997021164387</v>
+        <v>1.502952863583857</v>
       </c>
       <c r="H18">
-        <v>0.253147559786072</v>
+        <v>0.07835254512615109</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00489250561422061</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.929527162189089</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8162458129822738</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1272034022340662</v>
       </c>
       <c r="M18">
-        <v>1.393822780594846</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2209414330046542</v>
       </c>
       <c r="O18">
-        <v>1.366435018357009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.600631508100804</v>
+      </c>
+      <c r="P18">
+        <v>0.9528806089625812</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.490364228316537</v>
+        <v>3.69475167543294</v>
       </c>
       <c r="C19">
-        <v>0.8146525912111997</v>
+        <v>0.7886204926638811</v>
       </c>
       <c r="D19">
-        <v>0.2910627963169787</v>
+        <v>0.1878356010827389</v>
       </c>
       <c r="E19">
-        <v>0.2802175500279702</v>
+        <v>0.03991804163207968</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4135412226470834</v>
+        <v>1.65834831020905</v>
       </c>
       <c r="H19">
-        <v>0.2521901016858408</v>
+        <v>0.03247494206647872</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004700328110247121</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.008172706952166</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9005405348179849</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1015779775048458</v>
       </c>
       <c r="M19">
-        <v>1.381320571980822</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2821679381157622</v>
       </c>
       <c r="O19">
-        <v>1.357273847967235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6573903753175188</v>
+      </c>
+      <c r="P19">
+        <v>0.9676989450204037</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.626190677066518</v>
+        <v>4.073120241024185</v>
       </c>
       <c r="C20">
-        <v>0.8432547860961108</v>
+        <v>0.8313352038493065</v>
       </c>
       <c r="D20">
-        <v>0.3030438991170854</v>
+        <v>0.2257829037399262</v>
       </c>
       <c r="E20">
-        <v>0.2921862502610253</v>
+        <v>0.0424846503705445</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4287888859722386</v>
+        <v>1.964854500222799</v>
       </c>
       <c r="H20">
-        <v>0.2565715137627222</v>
+        <v>0.003744141377889587</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003374117689709522</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.158174475143596</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.056710951508521</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07581719407939858</v>
       </c>
       <c r="M20">
-        <v>1.437672274540333</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4017995900339315</v>
       </c>
       <c r="O20">
-        <v>1.398936069820991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7804049214743216</v>
+      </c>
+      <c r="P20">
+        <v>0.9914667149623924</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.084446206951611</v>
+        <v>4.600006957510345</v>
       </c>
       <c r="C21">
-        <v>0.9396763727014559</v>
+        <v>0.9420176231216146</v>
       </c>
       <c r="D21">
-        <v>0.343755230727254</v>
+        <v>0.245341057080978</v>
       </c>
       <c r="E21">
-        <v>0.3337217593248099</v>
+        <v>0.04560520490023601</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4825171122660947</v>
+        <v>2.159949223210958</v>
       </c>
       <c r="H21">
-        <v>0.2726336302379337</v>
+        <v>0.00128142329085601</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001982930878211775</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.24514105445914</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.131084306440727</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08467934874744998</v>
       </c>
       <c r="M21">
-        <v>1.628746045124089</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4538211800603023</v>
       </c>
       <c r="O21">
-        <v>1.547006924684268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.8827830308759914</v>
+      </c>
+      <c r="P21">
+        <v>0.9513571988706353</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.385637204796922</v>
+        <v>4.941613277555632</v>
       </c>
       <c r="C22">
-        <v>1.002986117603768</v>
+        <v>1.013092743019001</v>
       </c>
       <c r="D22">
-        <v>0.3707469349857178</v>
+        <v>0.256678471781882</v>
       </c>
       <c r="E22">
-        <v>0.3619765398084667</v>
+        <v>0.0474822185845456</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5196857908268271</v>
+        <v>2.282639168046842</v>
       </c>
       <c r="H22">
-        <v>0.2842176157342635</v>
+        <v>0.000426873492863411</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001414889164975897</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.29963728366323</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.177333744498029</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09181758245363625</v>
       </c>
       <c r="M22">
-        <v>1.755123085397713</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4819916260295543</v>
       </c>
       <c r="O22">
-        <v>1.650400111664368</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.9460254491927316</v>
+      </c>
+      <c r="P22">
+        <v>0.9246450464909266</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.224712002898457</v>
+        <v>4.765942430074972</v>
       </c>
       <c r="C23">
-        <v>0.9691661962010301</v>
+        <v>0.9734479094552455</v>
       </c>
       <c r="D23">
-        <v>0.3563028082294863</v>
+        <v>0.2507149442433274</v>
       </c>
       <c r="E23">
-        <v>0.3467866324366398</v>
+        <v>0.04650605194691915</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4996473100318184</v>
+        <v>2.222854604641356</v>
       </c>
       <c r="H23">
-        <v>0.2779297834093626</v>
+        <v>0.0008184471411665228</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001343460968012522</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.273398721060516</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.156275290401638</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08795603515225991</v>
       </c>
       <c r="M23">
-        <v>1.687522450169013</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4665456952693461</v>
       </c>
       <c r="O23">
-        <v>1.594571897596808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9129653307250223</v>
+      </c>
+      <c r="P23">
+        <v>0.9400876312340003</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.618725281481829</v>
+        <v>4.09230683651424</v>
       </c>
       <c r="C24">
-        <v>0.8416830058581866</v>
+        <v>0.827842396161202</v>
       </c>
       <c r="D24">
-        <v>0.3023843450403518</v>
+        <v>0.2282327637887107</v>
       </c>
       <c r="E24">
-        <v>0.2915243103005665</v>
+        <v>0.04281672958254434</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4279426272159128</v>
+        <v>1.990705320802078</v>
       </c>
       <c r="H24">
-        <v>0.2563260735490758</v>
+        <v>0.00352433235292815</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002828063377077861</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.17124870257075</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.072066863806391</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07377365344725462</v>
       </c>
       <c r="M24">
-        <v>1.434571654668545</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4091365590063987</v>
       </c>
       <c r="O24">
-        <v>1.39661917512538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.7872195424252411</v>
+      </c>
+      <c r="P24">
+        <v>0.9978115522708215</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.970584390404667</v>
+        <v>3.370369822358953</v>
       </c>
       <c r="C25">
-        <v>0.7050985189448511</v>
+        <v>0.6740416140797549</v>
       </c>
       <c r="D25">
-        <v>0.2455965212069486</v>
+        <v>0.2044734730126265</v>
       </c>
       <c r="E25">
-        <v>0.2359041588600803</v>
+        <v>0.03891136463194433</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3582087458393062</v>
+        <v>1.747458558976263</v>
       </c>
       <c r="H25">
-        <v>0.2371417904046353</v>
+        <v>0.008774594933823987</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006870732009882197</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.064881159373442</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9842334674789868</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05914827001186396</v>
       </c>
       <c r="M25">
-        <v>1.166890007551231</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3479842619227753</v>
       </c>
       <c r="O25">
-        <v>1.207813766411959</v>
+        <v>0.6526875316928695</v>
+      </c>
+      <c r="P25">
+        <v>1.062528142761511</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.857242931777989</v>
+        <v>2.62410434339381</v>
       </c>
       <c r="C2">
-        <v>0.5590308753695297</v>
+        <v>0.6124013786993601</v>
       </c>
       <c r="D2">
-        <v>0.1875651830399789</v>
+        <v>0.1853764934190707</v>
       </c>
       <c r="E2">
-        <v>0.03612865170289092</v>
+        <v>0.03612820544006046</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.587365302086397</v>
+        <v>1.344375328391365</v>
       </c>
       <c r="H2">
-        <v>0.01433208483158499</v>
+        <v>0.01187841321403997</v>
       </c>
       <c r="I2">
-        <v>0.01082288597045133</v>
+        <v>0.007858734307380821</v>
       </c>
       <c r="J2">
-        <v>0.996360668986739</v>
+        <v>0.8934969323030799</v>
       </c>
       <c r="K2">
-        <v>0.9305807597267517</v>
+        <v>0.7709827970420307</v>
       </c>
       <c r="L2">
-        <v>0.04872190077355754</v>
+        <v>0.3235700390431973</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2563031164243803</v>
       </c>
       <c r="N2">
-        <v>0.3025213051310374</v>
+        <v>0.0510970125230692</v>
       </c>
       <c r="O2">
-        <v>0.5559679982439008</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.115511392546413</v>
+        <v>0.3261381004379587</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.53141799287814</v>
+      </c>
+      <c r="R2">
+        <v>1.027992366762632</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.501038283205332</v>
+        <v>2.301676156499923</v>
       </c>
       <c r="C3">
-        <v>0.4843186592161999</v>
+        <v>0.5289391324784845</v>
       </c>
       <c r="D3">
-        <v>0.1761427729208833</v>
+        <v>0.174719257999449</v>
       </c>
       <c r="E3">
-        <v>0.03420081357120308</v>
+        <v>0.0345182495904679</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.473147757662161</v>
+        <v>1.260049191972286</v>
       </c>
       <c r="H3">
-        <v>0.01911283843325906</v>
+        <v>0.01579353245481874</v>
       </c>
       <c r="I3">
-        <v>0.0149437361301783</v>
+        <v>0.01084195678120548</v>
       </c>
       <c r="J3">
-        <v>0.9472280963905746</v>
+        <v>0.8498207299786742</v>
       </c>
       <c r="K3">
-        <v>0.8901119211537463</v>
+        <v>0.7453971818801648</v>
       </c>
       <c r="L3">
-        <v>0.0419066959250749</v>
+        <v>0.320426967684817</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.241668674873484</v>
       </c>
       <c r="N3">
-        <v>0.2724655369032263</v>
+        <v>0.04418285475084005</v>
       </c>
       <c r="O3">
-        <v>0.4896855748859821</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.150608197265813</v>
+        <v>0.2944265249110742</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4686831079991975</v>
+      </c>
+      <c r="R3">
+        <v>1.062393509249593</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.282265268324011</v>
+        <v>2.103019484632171</v>
       </c>
       <c r="C4">
-        <v>0.4389047513442961</v>
+        <v>0.4782123183899216</v>
       </c>
       <c r="D4">
-        <v>0.1692010675054334</v>
+        <v>0.1682490689891765</v>
       </c>
       <c r="E4">
-        <v>0.03300924557856355</v>
+        <v>0.0335188178079171</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.40380691596414</v>
+        <v>1.208933707340805</v>
       </c>
       <c r="H4">
-        <v>0.02250105314078865</v>
+        <v>0.01856864230637367</v>
       </c>
       <c r="I4">
-        <v>0.01794491396752207</v>
+        <v>0.01303872428485375</v>
       </c>
       <c r="J4">
-        <v>0.9175497857578847</v>
+        <v>0.8229554655733011</v>
       </c>
       <c r="K4">
-        <v>0.8655596966930617</v>
+        <v>0.7297637025520558</v>
       </c>
       <c r="L4">
-        <v>0.03780276960149109</v>
+        <v>0.3182424671231487</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2335358354813906</v>
       </c>
       <c r="N4">
-        <v>0.2541103658741548</v>
+        <v>0.04000035203489816</v>
       </c>
       <c r="O4">
-        <v>0.4490430287483989</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.172598388059935</v>
+        <v>0.275077548486351</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4301381260515171</v>
+      </c>
+      <c r="R4">
+        <v>1.08403236253378</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.191447952651231</v>
+        <v>2.020374154680155</v>
       </c>
       <c r="C5">
-        <v>0.4208965410361714</v>
+        <v>0.4580610676412391</v>
       </c>
       <c r="D5">
-        <v>0.1663632187922914</v>
+        <v>0.1656057928002213</v>
       </c>
       <c r="E5">
-        <v>0.03251369838873552</v>
+        <v>0.03310195323278786</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.374262715356153</v>
+        <v>1.186961603515655</v>
       </c>
       <c r="H5">
-        <v>0.02400106449228168</v>
+        <v>0.01979754894019325</v>
       </c>
       <c r="I5">
-        <v>0.01937648837020101</v>
+        <v>0.01412673086497751</v>
       </c>
       <c r="J5">
-        <v>0.9048295876018528</v>
+        <v>0.8113119457596838</v>
       </c>
       <c r="K5">
-        <v>0.8546892817732683</v>
+        <v>0.722606723071884</v>
       </c>
       <c r="L5">
-        <v>0.0361572822691123</v>
+        <v>0.3169376883509472</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.230182677848795</v>
       </c>
       <c r="N5">
-        <v>0.2467457851533226</v>
+        <v>0.03831920331961314</v>
       </c>
       <c r="O5">
-        <v>0.4323164634050656</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.181273259978983</v>
+        <v>0.2673128584567905</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4142576665133149</v>
+      </c>
+      <c r="R5">
+        <v>1.092749051157352</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.174374610508607</v>
+        <v>2.004797731998735</v>
       </c>
       <c r="C6">
-        <v>0.4183979702661134</v>
+        <v>0.4552151481637452</v>
       </c>
       <c r="D6">
-        <v>0.1658616297214408</v>
+        <v>0.1651387423217514</v>
       </c>
       <c r="E6">
-        <v>0.03242236309653035</v>
+        <v>0.03302482871297285</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.367576332795721</v>
+        <v>1.181744641218131</v>
       </c>
       <c r="H6">
-        <v>0.02426915334556079</v>
+        <v>0.02001728271415271</v>
       </c>
       <c r="I6">
-        <v>0.01974474297779238</v>
+        <v>0.01444954886707084</v>
       </c>
       <c r="J6">
-        <v>0.9018198880005741</v>
+        <v>0.8085463397414685</v>
       </c>
       <c r="K6">
-        <v>0.8517492154591437</v>
+        <v>0.7204409353290089</v>
       </c>
       <c r="L6">
-        <v>0.03589661983031078</v>
+        <v>0.3162901325208622</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2293326853514195</v>
       </c>
       <c r="N6">
-        <v>0.2456391925540231</v>
+        <v>0.03805280377970277</v>
       </c>
       <c r="O6">
-        <v>0.4293276161712285</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.182242074636225</v>
+        <v>0.2661387668082824</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4114205615083719</v>
+      </c>
+      <c r="R6">
+        <v>1.09392916296428</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.275583776835163</v>
+        <v>2.094518463010274</v>
       </c>
       <c r="C7">
-        <v>0.4399913076772748</v>
+        <v>0.4779859801091959</v>
       </c>
       <c r="D7">
-        <v>0.1690773285585223</v>
+        <v>0.1682211244415655</v>
       </c>
       <c r="E7">
-        <v>0.03297843441413173</v>
+        <v>0.0334959597063782</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.398510581397048</v>
+        <v>1.208417282607058</v>
       </c>
       <c r="H7">
-        <v>0.02255332241786612</v>
+        <v>0.01862828305827247</v>
       </c>
       <c r="I7">
-        <v>0.01828273467928554</v>
+        <v>0.01342159253581432</v>
       </c>
       <c r="J7">
-        <v>0.9149071751345019</v>
+        <v>0.8116868183222437</v>
       </c>
       <c r="K7">
-        <v>0.8623002299761779</v>
+        <v>0.7257200576633664</v>
       </c>
       <c r="L7">
-        <v>0.03781200535958362</v>
+        <v>0.3165281779283902</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2322287614165042</v>
       </c>
       <c r="N7">
-        <v>0.2543262664188006</v>
+        <v>0.03993044099289733</v>
       </c>
       <c r="O7">
-        <v>0.4482367804252974</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.171426404653921</v>
+        <v>0.2750746075808621</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.428935073535385</v>
+      </c>
+      <c r="R7">
+        <v>1.083084366145004</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.727110106102543</v>
+        <v>2.498475367773096</v>
       </c>
       <c r="C8">
-        <v>0.5349385420693409</v>
+        <v>0.5809218404669991</v>
       </c>
       <c r="D8">
-        <v>0.1834985008295007</v>
+        <v>0.1818759877321838</v>
       </c>
       <c r="E8">
-        <v>0.03543343000766397</v>
+        <v>0.03556134027095292</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.541302046643636</v>
+        <v>1.323160060703373</v>
       </c>
       <c r="H8">
-        <v>0.01591819880743678</v>
+        <v>0.01322120553906839</v>
       </c>
       <c r="I8">
-        <v>0.01251776438150642</v>
+        <v>0.009268816356834186</v>
       </c>
       <c r="J8">
-        <v>0.9760385577251043</v>
+        <v>0.8462920674696761</v>
       </c>
       <c r="K8">
-        <v>0.9124368741366879</v>
+        <v>0.7544214869597923</v>
       </c>
       <c r="L8">
-        <v>0.04639433517575497</v>
+        <v>0.319388886046994</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2484376567551116</v>
       </c>
       <c r="N8">
-        <v>0.2925568961505007</v>
+        <v>0.04847285305709548</v>
       </c>
       <c r="O8">
-        <v>0.5323209922845322</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.125893811082857</v>
+        <v>0.3148929930118385</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5075761265629808</v>
+      </c>
+      <c r="R8">
+        <v>1.037936107053296</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.623182621458625</v>
+        <v>3.303550215668395</v>
       </c>
       <c r="C9">
-        <v>0.7230474525876218</v>
+        <v>0.7898088742506957</v>
       </c>
       <c r="D9">
-        <v>0.2125704631447292</v>
+        <v>0.2091196023345105</v>
       </c>
       <c r="E9">
-        <v>0.0402633842352409</v>
+        <v>0.03957349625485751</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.837427923095703</v>
+        <v>1.547114169306241</v>
       </c>
       <c r="H9">
-        <v>0.006688134905705356</v>
+        <v>0.005645270109505329</v>
       </c>
       <c r="I9">
-        <v>0.004729397310260453</v>
+        <v>0.003614593062620131</v>
       </c>
       <c r="J9">
-        <v>1.104705786654705</v>
+        <v>0.9496433361315724</v>
       </c>
       <c r="K9">
-        <v>1.019067690955872</v>
+        <v>0.8209142442384874</v>
       </c>
       <c r="L9">
-        <v>0.06394569324483612</v>
+        <v>0.3269095229525618</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2902871129348981</v>
       </c>
       <c r="N9">
-        <v>0.3679154718354738</v>
+        <v>0.06606532122776798</v>
       </c>
       <c r="O9">
-        <v>0.698963657535316</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.04245260686033</v>
+        <v>0.3942973572427775</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6643681722565447</v>
+      </c>
+      <c r="R9">
+        <v>0.9559856613427855</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.258805124229866</v>
+        <v>3.858618524580265</v>
       </c>
       <c r="C10">
-        <v>0.8645729730286291</v>
+        <v>0.9379798400107404</v>
       </c>
       <c r="D10">
-        <v>0.2310757627434441</v>
+        <v>0.2269025438327219</v>
       </c>
       <c r="E10">
-        <v>0.04340853203402517</v>
+        <v>0.04218508721698733</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.033134773178631</v>
+        <v>1.718829267045152</v>
       </c>
       <c r="H10">
-        <v>0.002909968674261965</v>
+        <v>0.002586165971992127</v>
       </c>
       <c r="I10">
-        <v>0.001996070541034456</v>
+        <v>0.001815468925498998</v>
       </c>
       <c r="J10">
-        <v>1.188721700041498</v>
+        <v>0.9644677100550325</v>
       </c>
       <c r="K10">
-        <v>1.084260610973885</v>
+        <v>0.8517142073193469</v>
       </c>
       <c r="L10">
-        <v>0.07987516855524035</v>
+        <v>0.3244670446578723</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3181020571709325</v>
       </c>
       <c r="N10">
-        <v>0.4131963725896952</v>
+        <v>0.08146435752789216</v>
       </c>
       <c r="O10">
-        <v>0.8125546660879763</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9783760441092184</v>
+        <v>0.4408294688662409</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7681130116106232</v>
+      </c>
+      <c r="R10">
+        <v>0.8961417351289087</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.344752294172622</v>
+        <v>3.920798563223457</v>
       </c>
       <c r="C11">
-        <v>0.9233943037522465</v>
+        <v>0.9784955846540981</v>
       </c>
       <c r="D11">
-        <v>0.211408148211774</v>
+        <v>0.2085510964563611</v>
       </c>
       <c r="E11">
-        <v>0.04297347783760963</v>
+        <v>0.04197809677437703</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.898064528824648</v>
+        <v>1.656250338511512</v>
       </c>
       <c r="H11">
-        <v>0.02116940293032599</v>
+        <v>0.02097795480609932</v>
       </c>
       <c r="I11">
-        <v>0.002107788554794432</v>
+        <v>0.002194684011996628</v>
       </c>
       <c r="J11">
-        <v>1.115267445356807</v>
+        <v>0.8078147340730624</v>
       </c>
       <c r="K11">
-        <v>0.9920694579423142</v>
+        <v>0.7632494492365538</v>
       </c>
       <c r="L11">
-        <v>0.1111317777579188</v>
+        <v>0.2871155770022611</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2904554148803982</v>
       </c>
       <c r="N11">
-        <v>0.3429190161665048</v>
+        <v>0.1118570825500385</v>
       </c>
       <c r="O11">
-        <v>0.7825453789198065</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9166744119920072</v>
+        <v>0.3647441176392761</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.734389475372879</v>
+      </c>
+      <c r="R11">
+        <v>0.8676903433206924</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.288788048789172</v>
+        <v>3.870647930310611</v>
       </c>
       <c r="C12">
-        <v>0.9404708181161539</v>
+        <v>0.9833690543968885</v>
       </c>
       <c r="D12">
-        <v>0.191836040274552</v>
+        <v>0.1898006436164223</v>
       </c>
       <c r="E12">
-        <v>0.04448253215021225</v>
+        <v>0.04360328187044615</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.753143705521751</v>
+        <v>1.558605963509848</v>
       </c>
       <c r="H12">
-        <v>0.05997902962754154</v>
+        <v>0.05979873149490089</v>
       </c>
       <c r="I12">
-        <v>0.002081031482961571</v>
+        <v>0.002181688298890094</v>
       </c>
       <c r="J12">
-        <v>1.040494264046913</v>
+        <v>0.7129241590928928</v>
       </c>
       <c r="K12">
-        <v>0.9082043480448903</v>
+        <v>0.6937421829262647</v>
       </c>
       <c r="L12">
-        <v>0.1386822267583483</v>
+        <v>0.2608685947337328</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2650718191651151</v>
       </c>
       <c r="N12">
-        <v>0.2799142580287679</v>
+        <v>0.1388333529941974</v>
       </c>
       <c r="O12">
-        <v>0.7345140867142135</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8909264573746527</v>
+        <v>0.2977630069427306</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6870795470501463</v>
+      </c>
+      <c r="R12">
+        <v>0.8684229095268563</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.111981121144879</v>
+        <v>3.729426998849249</v>
       </c>
       <c r="C13">
-        <v>0.9282115645226838</v>
+        <v>0.9666178829922103</v>
       </c>
       <c r="D13">
-        <v>0.171175647813925</v>
+        <v>0.169484675811006</v>
       </c>
       <c r="E13">
-        <v>0.04745483341221401</v>
+        <v>0.04680150696411722</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.584866303670168</v>
+        <v>1.412862315903737</v>
       </c>
       <c r="H13">
-        <v>0.1162722809503265</v>
+        <v>0.1159942908360989</v>
       </c>
       <c r="I13">
-        <v>0.002318618168847486</v>
+        <v>0.002317457759693831</v>
       </c>
       <c r="J13">
-        <v>0.9565987849498185</v>
+        <v>0.6651500357606039</v>
       </c>
       <c r="K13">
-        <v>0.8211644721534768</v>
+        <v>0.6322872407732305</v>
       </c>
       <c r="L13">
-        <v>0.1646214974871256</v>
+        <v>0.239971852840263</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2396012609129201</v>
       </c>
       <c r="N13">
-        <v>0.2198003563724953</v>
+        <v>0.1649582651150894</v>
       </c>
       <c r="O13">
-        <v>0.6693110381616165</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8884739649290552</v>
+        <v>0.2349839803510889</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6269393926503426</v>
+      </c>
+      <c r="R13">
+        <v>0.8864703307217923</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.932863251673325</v>
+        <v>3.587911682984668</v>
       </c>
       <c r="C14">
-        <v>0.9068428747705752</v>
+        <v>0.9454019145235861</v>
       </c>
       <c r="D14">
-        <v>0.1564593529517424</v>
+        <v>0.1548462823750327</v>
       </c>
       <c r="E14">
-        <v>0.0504850139616817</v>
+        <v>0.05011070988051358</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.456828839268269</v>
+        <v>1.291251913079293</v>
       </c>
       <c r="H14">
-        <v>0.1662183019856514</v>
+        <v>0.1658069361731265</v>
       </c>
       <c r="I14">
-        <v>0.002754715984648826</v>
+        <v>0.002622531903291758</v>
       </c>
       <c r="J14">
-        <v>0.893840212109609</v>
+        <v>0.6488193149310746</v>
       </c>
       <c r="K14">
-        <v>0.7589871951603442</v>
+        <v>0.5921215521394601</v>
       </c>
       <c r="L14">
-        <v>0.1824475468156663</v>
+        <v>0.2272169180316368</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2217055385334028</v>
       </c>
       <c r="N14">
-        <v>0.1803887223803997</v>
+        <v>0.1833585712118335</v>
       </c>
       <c r="O14">
-        <v>0.6163159641392895</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8983520396927851</v>
+        <v>0.1941435092202823</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5791838408723251</v>
+      </c>
+      <c r="R14">
+        <v>0.9065748267169269</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.862090958328054</v>
+        <v>3.531994992567036</v>
       </c>
       <c r="C15">
-        <v>0.8960110498292124</v>
+        <v>0.935977570835604</v>
       </c>
       <c r="D15">
-        <v>0.1525489052994473</v>
+        <v>0.1509015101124973</v>
       </c>
       <c r="E15">
-        <v>0.05119601804253193</v>
+        <v>0.05095719033830193</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.418994003790971</v>
+        <v>1.251622949840709</v>
       </c>
       <c r="H15">
-        <v>0.1790209796685218</v>
+        <v>0.1785427070272192</v>
       </c>
       <c r="I15">
-        <v>0.003080120379293838</v>
+        <v>0.002899688379172538</v>
       </c>
       <c r="J15">
-        <v>0.8757900333028772</v>
+        <v>0.6513050036611503</v>
       </c>
       <c r="K15">
-        <v>0.7419826936899696</v>
+        <v>0.582513402750763</v>
       </c>
       <c r="L15">
-        <v>0.1858051155401981</v>
+        <v>0.2245467281956799</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2168877886722811</v>
       </c>
       <c r="N15">
-        <v>0.170752627846575</v>
+        <v>0.1870644464219922</v>
       </c>
       <c r="O15">
-        <v>0.5996342369515091</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.904239625695773</v>
+        <v>0.1842987671200831</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5645347414512685</v>
+      </c>
+      <c r="R15">
+        <v>0.9135673248049656</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.625301341152522</v>
+        <v>3.343232666394726</v>
       </c>
       <c r="C16">
-        <v>0.8379706165187883</v>
+        <v>0.8886683849802637</v>
       </c>
       <c r="D16">
-        <v>0.1492312314447943</v>
+        <v>0.1471752478956958</v>
       </c>
       <c r="E16">
-        <v>0.04908247812763022</v>
+        <v>0.04937270194501764</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.36896699789574</v>
+        <v>1.174478740692706</v>
       </c>
       <c r="H16">
-        <v>0.1678442134730176</v>
+        <v>0.1670230530443462</v>
       </c>
       <c r="I16">
-        <v>0.004252958975105692</v>
+        <v>0.003718127734020804</v>
       </c>
       <c r="J16">
-        <v>0.8564033008010483</v>
+        <v>0.7113522364844442</v>
       </c>
       <c r="K16">
-        <v>0.7312257260653396</v>
+        <v>0.5888077609417763</v>
       </c>
       <c r="L16">
-        <v>0.1726501543712118</v>
+        <v>0.2305293993614583</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2142705764603612</v>
       </c>
       <c r="N16">
-        <v>0.1655210749588178</v>
+        <v>0.1755366776625351</v>
       </c>
       <c r="O16">
-        <v>0.5655772717473937</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9290755754509945</v>
+        <v>0.1802306007215009</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5369834159918483</v>
+      </c>
+      <c r="R16">
+        <v>0.9267210506588981</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.538331912122203</v>
+        <v>3.269699306297923</v>
       </c>
       <c r="C17">
-        <v>0.8050532780434025</v>
+        <v>0.8616651105647577</v>
       </c>
       <c r="D17">
-        <v>0.154340907359888</v>
+        <v>0.1520013199241177</v>
       </c>
       <c r="E17">
-        <v>0.0456630644119187</v>
+        <v>0.04607082213550839</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.397708107167063</v>
+        <v>1.18365606748317</v>
       </c>
       <c r="H17">
-        <v>0.1309904612180048</v>
+        <v>0.1299752310088564</v>
       </c>
       <c r="I17">
-        <v>0.00497755340381989</v>
+        <v>0.004239919649306145</v>
       </c>
       <c r="J17">
-        <v>0.8744978776559549</v>
+        <v>0.7595051653069049</v>
       </c>
       <c r="K17">
-        <v>0.7553945945566696</v>
+        <v>0.6138135463082151</v>
       </c>
       <c r="L17">
-        <v>0.1529080496371122</v>
+        <v>0.2418932297465659</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2209966890570598</v>
       </c>
       <c r="N17">
-        <v>0.1815528131231261</v>
+        <v>0.1563534581688515</v>
       </c>
       <c r="O17">
-        <v>0.5672089128833093</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.94245385108864</v>
+        <v>0.1978653484283797</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5403876918838293</v>
+      </c>
+      <c r="R17">
+        <v>0.9282326611397558</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.573748494266908</v>
+        <v>3.295827408088542</v>
       </c>
       <c r="C18">
-        <v>0.7884477332199822</v>
+        <v>0.8506286257067472</v>
       </c>
       <c r="D18">
-        <v>0.1678316438591736</v>
+        <v>0.1650826352673747</v>
       </c>
       <c r="E18">
-        <v>0.04191662676073271</v>
+        <v>0.04213804799120258</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.502952863583857</v>
+        <v>1.263455725731561</v>
       </c>
       <c r="H18">
-        <v>0.07835254512615109</v>
+        <v>0.0773019568363722</v>
       </c>
       <c r="I18">
-        <v>0.00489250561422061</v>
+        <v>0.004066535595105059</v>
       </c>
       <c r="J18">
-        <v>0.929527162189089</v>
+        <v>0.8194130420183257</v>
       </c>
       <c r="K18">
-        <v>0.8162458129822738</v>
+        <v>0.6632689126948463</v>
       </c>
       <c r="L18">
-        <v>0.1272034022340662</v>
+        <v>0.2613859402322305</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2383076128180903</v>
       </c>
       <c r="N18">
-        <v>0.2209414330046542</v>
+        <v>0.1306463225636492</v>
       </c>
       <c r="O18">
-        <v>0.600631508100804</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9528806089625812</v>
+        <v>0.2398559513202656</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5726397200753439</v>
+      </c>
+      <c r="R18">
+        <v>0.9229589693425133</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.69475167543294</v>
+        <v>3.392781097705551</v>
       </c>
       <c r="C19">
-        <v>0.7886204926638811</v>
+        <v>0.8569595695577163</v>
       </c>
       <c r="D19">
-        <v>0.1878356010827389</v>
+        <v>0.1845227196390624</v>
       </c>
       <c r="E19">
-        <v>0.03991804163207968</v>
+        <v>0.03973099061211105</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.65834831020905</v>
+        <v>1.387181172853388</v>
       </c>
       <c r="H19">
-        <v>0.03247494206647872</v>
+        <v>0.03153710102514395</v>
       </c>
       <c r="I19">
-        <v>0.004700328110247121</v>
+        <v>0.004002709198406507</v>
       </c>
       <c r="J19">
-        <v>1.008172706952166</v>
+        <v>0.8883112450263866</v>
       </c>
       <c r="K19">
-        <v>0.9005405348179849</v>
+        <v>0.7279687758976721</v>
       </c>
       <c r="L19">
-        <v>0.1015779775048458</v>
+        <v>0.2856952034802447</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.262508147960709</v>
       </c>
       <c r="N19">
-        <v>0.2821679381157622</v>
+        <v>0.1046732867894065</v>
       </c>
       <c r="O19">
-        <v>0.6573903753175188</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9676989450204037</v>
+        <v>0.3045693888141301</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6262639304129749</v>
+      </c>
+      <c r="R19">
+        <v>0.9188545492515594</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.073120241024185</v>
+        <v>3.704820278421096</v>
       </c>
       <c r="C20">
-        <v>0.8313352038493065</v>
+        <v>0.9079494123088523</v>
       </c>
       <c r="D20">
-        <v>0.2257829037399262</v>
+        <v>0.221494057234537</v>
       </c>
       <c r="E20">
-        <v>0.0424846503705445</v>
+        <v>0.04140536444581233</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.964854500222799</v>
+        <v>1.643895114051503</v>
       </c>
       <c r="H20">
-        <v>0.003744141377889587</v>
+        <v>0.003242880259058722</v>
       </c>
       <c r="I20">
-        <v>0.003374117689709522</v>
+        <v>0.003135360709306312</v>
       </c>
       <c r="J20">
-        <v>1.158174475143596</v>
+        <v>0.9841492950894235</v>
       </c>
       <c r="K20">
-        <v>1.056710951508521</v>
+        <v>0.839557080938107</v>
       </c>
       <c r="L20">
-        <v>0.07581719407939858</v>
+        <v>0.3236731744205201</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3089959650551322</v>
       </c>
       <c r="N20">
-        <v>0.4017995900339315</v>
+        <v>0.07787578740101253</v>
       </c>
       <c r="O20">
-        <v>0.7804049214743216</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9914667149623924</v>
+        <v>0.4298358569625691</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7403851685713434</v>
+      </c>
+      <c r="R20">
+        <v>0.9109413042857456</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.600006957510345</v>
+        <v>4.115147352996246</v>
       </c>
       <c r="C21">
-        <v>0.9420176231216146</v>
+        <v>0.9989531556344105</v>
       </c>
       <c r="D21">
-        <v>0.245341057080978</v>
+        <v>0.2421438057468919</v>
       </c>
       <c r="E21">
-        <v>0.04560520490023601</v>
+        <v>0.04410893577400765</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.159949223210958</v>
+        <v>1.894930791476497</v>
       </c>
       <c r="H21">
-        <v>0.00128142329085601</v>
+        <v>0.00123518864941996</v>
       </c>
       <c r="I21">
-        <v>0.001982930878211775</v>
+        <v>0.002243150671234595</v>
       </c>
       <c r="J21">
-        <v>1.24514105445914</v>
+        <v>0.8584754040415135</v>
       </c>
       <c r="K21">
-        <v>1.131084306440727</v>
+        <v>0.8578105795443633</v>
       </c>
       <c r="L21">
-        <v>0.08467934874744998</v>
+        <v>0.319805755176958</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3291509331864049</v>
       </c>
       <c r="N21">
-        <v>0.4538211800603023</v>
+        <v>0.08458365834624004</v>
       </c>
       <c r="O21">
-        <v>0.8827830308759914</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9513571988706353</v>
+        <v>0.4795367005086462</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8252658690573824</v>
+      </c>
+      <c r="R21">
+        <v>0.8658945781624769</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.941613277555632</v>
+        <v>4.37626798625837</v>
       </c>
       <c r="C22">
-        <v>1.013092743019001</v>
+        <v>1.054300051859855</v>
       </c>
       <c r="D22">
-        <v>0.256678471781882</v>
+        <v>0.2544515379847638</v>
       </c>
       <c r="E22">
-        <v>0.0474822185845456</v>
+        <v>0.04578388202078543</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.282639168046842</v>
+        <v>2.066489075271221</v>
       </c>
       <c r="H22">
-        <v>0.000426873492863411</v>
+        <v>0.0005001775838704425</v>
       </c>
       <c r="I22">
-        <v>0.001414889164975897</v>
+        <v>0.001713101255784721</v>
       </c>
       <c r="J22">
-        <v>1.29963728366323</v>
+        <v>0.7714411254495985</v>
       </c>
       <c r="K22">
-        <v>1.177333744498029</v>
+        <v>0.8659874886592789</v>
       </c>
       <c r="L22">
-        <v>0.09181758245363625</v>
+        <v>0.3159239062317312</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3413482857577677</v>
       </c>
       <c r="N22">
-        <v>0.4819916260295543</v>
+        <v>0.09017972938762853</v>
       </c>
       <c r="O22">
-        <v>0.9460254491927316</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9246450464909266</v>
+        <v>0.5055052040904258</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8762643224413367</v>
+      </c>
+      <c r="R22">
+        <v>0.8373490862717867</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.765942430074972</v>
+        <v>4.249601736751231</v>
       </c>
       <c r="C23">
-        <v>0.9734479094552455</v>
+        <v>1.026704121138323</v>
       </c>
       <c r="D23">
-        <v>0.2507149442433274</v>
+        <v>0.2476975251149298</v>
       </c>
       <c r="E23">
-        <v>0.04650605194691915</v>
+        <v>0.04488709093961551</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.222854604641356</v>
+        <v>1.967690536141617</v>
       </c>
       <c r="H23">
-        <v>0.0008184471411665228</v>
+        <v>0.0008386105942630451</v>
       </c>
       <c r="I23">
-        <v>0.001343460968012522</v>
+        <v>0.001576789140118606</v>
       </c>
       <c r="J23">
-        <v>1.273398721060516</v>
+        <v>0.8389252140443091</v>
       </c>
       <c r="K23">
-        <v>1.156275290401638</v>
+        <v>0.8678477336376815</v>
       </c>
       <c r="L23">
-        <v>0.08795603515225991</v>
+        <v>0.3201541206414404</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3373144695213881</v>
       </c>
       <c r="N23">
-        <v>0.4665456952693461</v>
+        <v>0.08735989107207587</v>
       </c>
       <c r="O23">
-        <v>0.9129653307250223</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9400876312340003</v>
+        <v>0.4918275559592331</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.850948706673762</v>
+      </c>
+      <c r="R23">
+        <v>0.853029546598556</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.09230683651424</v>
+        <v>3.721204878017716</v>
       </c>
       <c r="C24">
-        <v>0.827842396161202</v>
+        <v>0.9051398692657813</v>
       </c>
       <c r="D24">
-        <v>0.2282327637887107</v>
+        <v>0.2238578116898395</v>
       </c>
       <c r="E24">
-        <v>0.04281672958254434</v>
+        <v>0.0416785690287389</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.990705320802078</v>
+        <v>1.664590895891251</v>
       </c>
       <c r="H24">
-        <v>0.00352433235292815</v>
+        <v>0.003035021406862626</v>
       </c>
       <c r="I24">
-        <v>0.002828063377077861</v>
+        <v>0.002498723473401299</v>
       </c>
       <c r="J24">
-        <v>1.17124870257075</v>
+        <v>0.9967093708262951</v>
       </c>
       <c r="K24">
-        <v>1.072066863806391</v>
+        <v>0.8519054078195438</v>
       </c>
       <c r="L24">
-        <v>0.07377365344725462</v>
+        <v>0.3283437870816925</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3135779595111217</v>
       </c>
       <c r="N24">
-        <v>0.4091365590063987</v>
+        <v>0.07578732386036791</v>
       </c>
       <c r="O24">
-        <v>0.7872195424252411</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9978115522708215</v>
+        <v>0.4376105798930041</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7468584850124245</v>
+      </c>
+      <c r="R24">
+        <v>0.9134367525205684</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.370369822358953</v>
+        <v>3.080267749953464</v>
       </c>
       <c r="C25">
-        <v>0.6740416140797549</v>
+        <v>0.7371045550478073</v>
       </c>
       <c r="D25">
-        <v>0.2044734730126265</v>
+        <v>0.2014011263578936</v>
       </c>
       <c r="E25">
-        <v>0.03891136463194433</v>
+        <v>0.03844808533407695</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.747458558976263</v>
+        <v>1.472008173302243</v>
       </c>
       <c r="H25">
-        <v>0.008774594933823987</v>
+        <v>0.007347943535188584</v>
       </c>
       <c r="I25">
-        <v>0.006870732009882197</v>
+        <v>0.005349995012818631</v>
       </c>
       <c r="J25">
-        <v>1.064881159373442</v>
+        <v>0.9301716950174068</v>
       </c>
       <c r="K25">
-        <v>0.9842334674789868</v>
+        <v>0.7998783391031736</v>
       </c>
       <c r="L25">
-        <v>0.05914827001186396</v>
+        <v>0.3239681490377819</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2771178753675585</v>
       </c>
       <c r="N25">
-        <v>0.3479842619227753</v>
+        <v>0.06139936054310979</v>
       </c>
       <c r="O25">
-        <v>0.6526875316928695</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.062528142761511</v>
+        <v>0.3735547511844572</v>
       </c>
       <c r="Q25">
+        <v>0.6215606117680039</v>
+      </c>
+      <c r="R25">
+        <v>0.977112290932757</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
